--- a/comment2_xy.xlsx
+++ b/comment2_xy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:G490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>新規性_IDF</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>関連性_norm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新規性_norm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>両立スコア</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -470,6 +485,15 @@
       <c r="D2" t="n">
         <v>35.12804874645311</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.02682699095898523</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1519132184561545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1787402094151397</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -486,6 +510,15 @@
       <c r="D3" t="n">
         <v>18.07119187813613</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07814988356913984</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.09768940669546354</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -502,6 +535,15 @@
       <c r="D4" t="n">
         <v>32.16309050193343</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.02256609961057595</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1390910901118191</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.161657189722395</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -518,6 +560,15 @@
       <c r="D5" t="n">
         <v>9.656627474604601</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.04788777299537702</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04176062751699048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0896484005123675</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +585,15 @@
       <c r="D6" t="n">
         <v>24.9953602380348</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.1040969233221744</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1080938382782863</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2121907616004607</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +611,15 @@
       <c r="D7" t="n">
         <v>8.908992108760588</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.002621211086060441</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03852743641443952</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04114864750049996</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +636,15 @@
       <c r="D8" t="n">
         <v>23.10151443776194</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.03699756325294347</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.099903795818038</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1369013590709815</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +663,15 @@
       <c r="D9" t="n">
         <v>9.378995738006322</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.1646808316822665</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04055999348927568</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2052408251715421</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -600,6 +687,15 @@
       </c>
       <c r="D10" t="n">
         <v>4.268697949366879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07656395891690011</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01846022387369255</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09502418279059266</v>
       </c>
     </row>
     <row r="11">
@@ -631,6 +727,15 @@
       <c r="D11" t="n">
         <v>54.95841354869967</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.2972603675616589</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2376707440737165</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5349311116353754</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -647,6 +752,15 @@
       <c r="D12" t="n">
         <v>8.91094714359639</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.01149598050602355</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03853589107231831</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05003187157834186</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -663,6 +777,15 @@
       <c r="D13" t="n">
         <v>6.287178791257027</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02718925756687717</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02718925756687717</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -679,6 +802,15 @@
       <c r="D14" t="n">
         <v>50.96237095029426</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.06889845369041928</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2203896335687399</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2892880872591592</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -696,6 +828,15 @@
       <c r="D15" t="n">
         <v>17.61135180910301</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0761612793808991</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0761612793808991</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -712,6 +853,15 @@
       <c r="D16" t="n">
         <v>26.65981886438897</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.1282799298581221</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1152918830299778</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2435718128881</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -728,6 +878,15 @@
       <c r="D17" t="n">
         <v>32.88414385765458</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.2483090797294528</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.14220932581961</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3905184055490628</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -744,6 +903,15 @@
       <c r="D18" t="n">
         <v>9.313135292700185</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.01087426840654961</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04027517629696234</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05114944470351195</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -760,6 +928,15 @@
       <c r="D19" t="n">
         <v>8.740336742730447</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03779807681782581</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03779807681782581</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -776,6 +953,15 @@
       <c r="D20" t="n">
         <v>13.13298987920956</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.2291771993350186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05679435185548903</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2859715511905077</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -792,6 +978,15 @@
       <c r="D21" t="n">
         <v>11.19974642058498</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.1320420851267337</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04843393201040381</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1804760171371375</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -808,6 +1003,15 @@
       <c r="D22" t="n">
         <v>7.730337112418941</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.02380041447473299</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03343027672771579</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05723069120244878</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -825,6 +1029,15 @@
       <c r="D23" t="n">
         <v>29.52581002149222</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.040021862403498</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1276860226499985</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1677078850534965</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -842,6 +1055,15 @@
       </c>
       <c r="D24" t="n">
         <v>30.58264380284992</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.06032884698594886</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.132256359654995</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1925852066409439</v>
       </c>
     </row>
     <row r="25">
@@ -862,6 +1084,15 @@
       <c r="D25" t="n">
         <v>44.98180950775576</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.109077452119059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1945263599360837</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3036038120551427</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -878,6 +1109,15 @@
       <c r="D26" t="n">
         <v>5.29991864791501</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02291979566447892</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02291979566447892</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -894,6 +1134,15 @@
       <c r="D27" t="n">
         <v>9.316412251704554</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.009277857484457201</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04028934769010448</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.04956720517456169</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -912,6 +1161,15 @@
       <c r="D28" t="n">
         <v>94.16782818608992</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.1337569174011068</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4072340584023904</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5409909758034972</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -929,6 +1187,15 @@
       <c r="D29" t="n">
         <v>18.67667812013766</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.04887158115278633</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08076834280714866</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.129639923959935</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -945,6 +1212,15 @@
       <c r="D30" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.1167907813531917</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1381298089091295</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -962,6 +1238,15 @@
       <c r="D31" t="n">
         <v>28.00034717742084</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.05982327890505797</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1210890729602848</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1809123518653428</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -977,6 +1262,15 @@
       </c>
       <c r="D32" t="n">
         <v>21.34918101345289</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1515588349160803</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.09232573157039144</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2438845664864717</v>
       </c>
     </row>
     <row r="33">
@@ -997,6 +1291,15 @@
       <c r="D33" t="n">
         <v>90.05481555679636</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.5179636082075108</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3894471044335941</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9074107126411048</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1013,6 +1316,15 @@
       </c>
       <c r="D34" t="n">
         <v>48.14103489500536</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1395663956639567</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2081886074428979</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3477550031068546</v>
       </c>
     </row>
     <row r="35">
@@ -1035,6 +1347,15 @@
       <c r="D35" t="n">
         <v>35.27394663114896</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.1381407847691923</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1525441620474159</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2906849468166082</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1052,6 +1373,15 @@
       <c r="D36" t="n">
         <v>47.62639722803476</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.1678417708546834</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2059630279667203</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3738047988214037</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1068,6 +1398,15 @@
       <c r="D37" t="n">
         <v>23.86518062067848</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.003026576484252238</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.10320631308879</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1062328895730422</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1084,6 +1423,15 @@
       <c r="D38" t="n">
         <v>18.45424593289399</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.230960351620323</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0798064223288346</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3107667739491576</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1099,6 +1447,15 @@
       </c>
       <c r="D39" t="n">
         <v>8.976059076251516</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03881747127966015</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.04385948808638284</v>
       </c>
     </row>
     <row r="40">
@@ -1119,6 +1476,15 @@
       <c r="D40" t="n">
         <v>2.263364379840764</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.02478422263214229</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00978804629777069</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03457226892991298</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1136,6 +1502,15 @@
       <c r="D41" t="n">
         <v>66.74254728454899</v>
       </c>
+      <c r="E41" t="n">
+        <v>0.3574138598528843</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2886318918292226</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.646045751682107</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1152,6 +1527,15 @@
       </c>
       <c r="D42" t="n">
         <v>12.68147058675084</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1461228393796543</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.05484173133256928</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2009645707122236</v>
       </c>
     </row>
     <row r="43">
@@ -1172,6 +1556,15 @@
       <c r="D43" t="n">
         <v>43.18930624212509</v>
       </c>
+      <c r="E43" t="n">
+        <v>0.1141445195964565</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.186774578955006</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3009190985514625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1189,6 +1582,15 @@
       <c r="D44" t="n">
         <v>6.150889913668523</v>
       </c>
+      <c r="E44" t="n">
+        <v>0.04707248753159803</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02659986866618177</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.07367235619777979</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1205,6 +1607,15 @@
       <c r="D45" t="n">
         <v>19.57544004972751</v>
       </c>
+      <c r="E45" t="n">
+        <v>0.1484479970850129</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.08465508921698574</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2331030863019987</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1221,6 +1632,15 @@
       <c r="D46" t="n">
         <v>4.463670623714392</v>
       </c>
+      <c r="E46" t="n">
+        <v>0.1952563139076769</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01930339414725137</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2145597080549283</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1237,6 +1657,15 @@
       <c r="D47" t="n">
         <v>33.78577364111755</v>
       </c>
+      <c r="E47" t="n">
+        <v>0.1698503791760607</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.146108474424487</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3159588536005478</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1254,6 +1683,15 @@
       <c r="D48" t="n">
         <v>9.316412251704554</v>
       </c>
+      <c r="E48" t="n">
+        <v>0.03045706087312975</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.04028934769010448</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.07074640856323423</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1270,6 +1708,15 @@
       <c r="D49" t="n">
         <v>5.920447059872702</v>
       </c>
+      <c r="E49" t="n">
+        <v>0.1319487144451277</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.02560330561074365</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1575520200558713</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1286,6 +1733,15 @@
       </c>
       <c r="D50" t="n">
         <v>18.59401905788689</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02216073421238415</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.08041087905299267</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1025716132653768</v>
       </c>
     </row>
     <row r="51">
@@ -1307,6 +1763,15 @@
       <c r="D51" t="n">
         <v>24.8868294978429</v>
       </c>
+      <c r="E51" t="n">
+        <v>0.06857962697274034</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1076244910007594</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1762041179734997</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1323,6 +1788,15 @@
       <c r="D52" t="n">
         <v>36.98343606958655</v>
       </c>
+      <c r="E52" t="n">
+        <v>0.2036164059119583</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1599369450734324</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3635533509853908</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1339,6 +1813,15 @@
       <c r="D53" t="n">
         <v>25.23780879103456</v>
       </c>
+      <c r="E53" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1091423206537826</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1286818437801063</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1355,6 +1838,15 @@
       <c r="D54" t="n">
         <v>5.274600839930721</v>
       </c>
+      <c r="E54" t="n">
+        <v>0.157509507868188</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02281030738282374</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1803198152510117</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1372,6 +1864,15 @@
       <c r="D55" t="n">
         <v>18.60449035775418</v>
       </c>
+      <c r="E55" t="n">
+        <v>0.06100976976156318</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.08045616277699741</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.1414659325385606</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1388,6 +1889,15 @@
       <c r="D56" t="n">
         <v>20.78738102370263</v>
       </c>
+      <c r="E56" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.08989619598224653</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1046100490031297</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1404,6 +1914,15 @@
       <c r="D57" t="n">
         <v>11.08374383024475</v>
       </c>
+      <c r="E57" t="n">
+        <v>0.1840768827856346</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.04793227229753363</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2320091550831683</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1420,6 +1939,15 @@
       <c r="D58" t="n">
         <v>9.944309547056385</v>
       </c>
+      <c r="E58" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.04300472478620472</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.09838948031443229</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1963,15 @@
       </c>
       <c r="D59" t="n">
         <v>12.7593215451834</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.08042176220081532</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.05517840217189623</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.1356001643727116</v>
       </c>
     </row>
     <row r="60">
@@ -1455,6 +1992,15 @@
       <c r="D60" t="n">
         <v>41.37425358066108</v>
       </c>
+      <c r="E60" t="n">
+        <v>0.07820363917924897</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1789252818460043</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.2571289210252533</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1471,6 +2017,15 @@
       <c r="D61" t="n">
         <v>74.1012273850927</v>
       </c>
+      <c r="E61" t="n">
+        <v>0.2058345289335247</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.320454916948878</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5262894458824026</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1489,6 +2044,15 @@
       <c r="D62" t="n">
         <v>39.88448745929892</v>
       </c>
+      <c r="E62" t="n">
+        <v>0.1900776570790919</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.172482704637217</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3625603617163089</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1505,6 +2069,15 @@
       <c r="D63" t="n">
         <v>11.62039109260006</v>
       </c>
+      <c r="E63" t="n">
+        <v>0.1353373869873153</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05025303350429754</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1855904204916128</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1521,6 +2094,15 @@
       <c r="D64" t="n">
         <v>14.40174962102014</v>
       </c>
+      <c r="E64" t="n">
+        <v>0.03258864521418325</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.06228117457135383</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.09486981978553707</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +2119,15 @@
       <c r="D65" t="n">
         <v>67.67489875502177</v>
       </c>
+      <c r="E65" t="n">
+        <v>0.04740042358406778</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.2926638980939074</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3400643216779751</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1555,6 +2146,15 @@
       <c r="D66" t="n">
         <v>70.48328908280537</v>
       </c>
+      <c r="E66" t="n">
+        <v>0.4586959987246932</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3048089396945405</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.7635049384192337</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1573,6 +2173,15 @@
       <c r="D67" t="n">
         <v>57.40409418386452</v>
       </c>
+      <c r="E67" t="n">
+        <v>0.6504429414042041</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.2482472272506052</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8986901686548092</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1588,6 +2197,15 @@
       </c>
       <c r="D68" t="n">
         <v>36.87222588379371</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2666188426590149</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1594560103830134</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.4260748530420284</v>
       </c>
     </row>
     <row r="69">
@@ -1611,6 +2229,15 @@
       <c r="D69" t="n">
         <v>23.42428783002499</v>
       </c>
+      <c r="E69" t="n">
+        <v>0.1450319965384528</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1012996474693667</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.2463316440078195</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1628,6 +2255,15 @@
       <c r="D70" t="n">
         <v>8.91094714359639</v>
       </c>
+      <c r="E70" t="n">
+        <v>0.06466261301268476</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.03853589107231831</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.1031985040850031</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1645,6 +2281,15 @@
       <c r="D71" t="n">
         <v>14.91725582845381</v>
       </c>
+      <c r="E71" t="n">
+        <v>0.1345312108583271</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.06451051009951299</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.1990417209578401</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1662,6 +2307,15 @@
       <c r="D72" t="n">
         <v>58.94754618563482</v>
       </c>
+      <c r="E72" t="n">
+        <v>0.202516453735966</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.2549219720624756</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.4574384257984416</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1678,6 +2332,15 @@
       <c r="D73" t="n">
         <v>22.36181458797276</v>
       </c>
+      <c r="E73" t="n">
+        <v>0.09106146523650113</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.09670492230006743</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.1877663875365685</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1694,6 +2357,15 @@
       <c r="D74" t="n">
         <v>53.62560020069333</v>
       </c>
+      <c r="E74" t="n">
+        <v>0.1447928765001937</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.2319069179426847</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.3766997944428784</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1710,6 +2382,15 @@
       </c>
       <c r="D75" t="n">
         <v>26.6548748108212</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1355514563548997</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1152705021928263</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2508219585477259</v>
       </c>
     </row>
     <row r="76">
@@ -1730,6 +2411,15 @@
       </c>
       <c r="D76" t="n">
         <v>94.87387912039753</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.3127917833800187</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.410287415296729</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.7230791986767477</v>
       </c>
     </row>
     <row r="77">
@@ -1753,6 +2443,15 @@
       <c r="D77" t="n">
         <v>55.6318172788193</v>
       </c>
+      <c r="E77" t="n">
+        <v>0.5713306460795703</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.2405829163011358</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.8119135623807061</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1771,6 +2470,15 @@
       <c r="D78" t="n">
         <v>37.58072497495986</v>
       </c>
+      <c r="E78" t="n">
+        <v>0.3167361253444468</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1625199544690958</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.4792560798135427</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1789,6 +2497,15 @@
       <c r="D79" t="n">
         <v>16.54082248917773</v>
       </c>
+      <c r="E79" t="n">
+        <v>0.04815422103800871</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.07153171525066976</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1196859362886785</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1805,6 +2522,15 @@
       <c r="D80" t="n">
         <v>41.8850768340595</v>
       </c>
+      <c r="E80" t="n">
+        <v>0.4168932613695886</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1811343656765952</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5980276270461837</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1821,6 +2547,15 @@
       <c r="D81" t="n">
         <v>11.76446849080614</v>
       </c>
+      <c r="E81" t="n">
+        <v>0.003026576484252238</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0508761042995544</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.05390268078380664</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1837,6 +2572,15 @@
       <c r="D82" t="n">
         <v>10.26176377784183</v>
       </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.04437757342517187</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.04437757342517187</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1853,6 +2597,15 @@
       <c r="D83" t="n">
         <v>9.6850269491263</v>
       </c>
+      <c r="E83" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.04188344263855314</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.06142296576487685</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1869,6 +2622,15 @@
       <c r="D84" t="n">
         <v>1.870802676568508</v>
       </c>
+      <c r="E84" t="n">
+        <v>0.00726013982828904</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.008090391178434186</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01535053100672323</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1885,6 +2647,15 @@
       <c r="D85" t="n">
         <v>47.08558089058511</v>
       </c>
+      <c r="E85" t="n">
+        <v>0.2878731980597118</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.2036242373607109</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.4914974354204227</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1902,6 +2673,15 @@
       <c r="D86" t="n">
         <v>42.56686004302156</v>
       </c>
+      <c r="E86" t="n">
+        <v>0.2524264990549066</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1840827754305884</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.436509274485495</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1918,6 +2698,15 @@
       <c r="D87" t="n">
         <v>21.31573544975291</v>
       </c>
+      <c r="E87" t="n">
+        <v>0.06818109357564166</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.09218109435295256</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.1603621879285942</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1934,6 +2723,15 @@
       <c r="D88" t="n">
         <v>8.558015185936494</v>
       </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.03700961701220389</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03700961701220389</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1949,6 +2747,15 @@
       </c>
       <c r="D89" t="n">
         <v>10.72083833655538</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.05515474482475919</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.04636286712106939</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1015176119458286</v>
       </c>
     </row>
     <row r="90">
@@ -1975,6 +2782,15 @@
       <c r="D90" t="n">
         <v>71.71466722373593</v>
       </c>
+      <c r="E90" t="n">
+        <v>0.2964860741044386</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.3101341035792611</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.6066201776836997</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1991,6 +2807,15 @@
       <c r="D91" t="n">
         <v>9.250495921953277</v>
       </c>
+      <c r="E91" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.04000428882237148</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04504630562909417</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2008,6 +2833,15 @@
       <c r="D92" t="n">
         <v>42.84993150291565</v>
       </c>
+      <c r="E92" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1853069338470144</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2406916893752419</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2023,6 +2857,15 @@
       </c>
       <c r="D93" t="n">
         <v>22.18006644269636</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2379904807451436</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.09591894224473736</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.333909422989881</v>
       </c>
     </row>
     <row r="94">
@@ -2044,6 +2887,15 @@
       <c r="D94" t="n">
         <v>64.05856481212021</v>
       </c>
+      <c r="E94" t="n">
+        <v>0.3172963494340827</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2770248589817824</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.5943212084158651</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2060,6 +2912,15 @@
       <c r="D95" t="n">
         <v>11.12472208697331</v>
       </c>
+      <c r="E95" t="n">
+        <v>0.02458153993304639</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.04810948506876639</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.07269102500181278</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2077,6 +2938,15 @@
       <c r="D96" t="n">
         <v>17.65502687260567</v>
       </c>
+      <c r="E96" t="n">
+        <v>0.1119514472455649</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.07635015464439167</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.1883016018899566</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2093,6 +2963,15 @@
       <c r="D97" t="n">
         <v>24.50717851721987</v>
       </c>
+      <c r="E97" t="n">
+        <v>0.1173054587688734</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.105982669026167</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.2232881277950404</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2109,6 +2988,15 @@
       <c r="D98" t="n">
         <v>7.131719166680249</v>
       </c>
+      <c r="E98" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.03084151982239641</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.04555537284327957</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2127,6 +3015,15 @@
       <c r="D99" t="n">
         <v>74.14263744196448</v>
       </c>
+      <c r="E99" t="n">
+        <v>0.158953337432534</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.320633997064066</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.4795873344966</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2143,6 +3040,15 @@
       <c r="D100" t="n">
         <v>20.56423747238842</v>
       </c>
+      <c r="E100" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.08893119917008228</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.1036450521909654</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2159,6 +3065,15 @@
       <c r="D101" t="n">
         <v>19.88795264956961</v>
       </c>
+      <c r="E101" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.08600656749557663</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.09104858430229931</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2175,6 +3090,15 @@
       <c r="D102" t="n">
         <v>18.62426700629867</v>
       </c>
+      <c r="E102" t="n">
+        <v>0.08155587438227326</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.08054168800364334</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.1620975623859166</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2192,6 +3116,15 @@
       <c r="D103" t="n">
         <v>15.25119686428749</v>
       </c>
+      <c r="E103" t="n">
+        <v>0.0423584067773451</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.06595465685227558</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.1083130636296207</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2207,6 +3140,15 @@
       </c>
       <c r="D104" t="n">
         <v>6.255430092942447</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1628976793969621</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.02705195853903839</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1899496379360004</v>
       </c>
     </row>
     <row r="105">
@@ -2228,6 +3170,15 @@
       <c r="D105" t="n">
         <v>122.9180818294294</v>
       </c>
+      <c r="E105" t="n">
+        <v>0.2888706702193073</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.5315661439649703</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8204368141842775</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2245,6 +3196,15 @@
       <c r="D106" t="n">
         <v>54.15280882602273</v>
       </c>
+      <c r="E106" t="n">
+        <v>0.2111566577850653</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.2341868612338623</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.4453435190189275</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2262,6 +3222,15 @@
       </c>
       <c r="D107" t="n">
         <v>50.37761872275108</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.03103778096604496</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.2178608397400062</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.2488986207060511</v>
       </c>
     </row>
     <row r="108">
@@ -2282,6 +3251,15 @@
       <c r="D108" t="n">
         <v>32.98808628128369</v>
       </c>
+      <c r="E108" t="n">
+        <v>0.3240577531825739</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.14265883066463</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.4667165838472039</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2299,6 +3277,15 @@
       <c r="D109" t="n">
         <v>49.64534775947892</v>
       </c>
+      <c r="E109" t="n">
+        <v>0.2039170139600555</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2146940928587438</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.4186111068187994</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2314,6 +3301,15 @@
       </c>
       <c r="D110" t="n">
         <v>22.36756503474166</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1636309808476236</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.09672979042987816</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.2603607712775018</v>
       </c>
     </row>
     <row r="111">
@@ -2356,6 +3352,15 @@
       <c r="D111" t="n">
         <v>108.4842046140169</v>
       </c>
+      <c r="E111" t="n">
+        <v>0.5161895652569972</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.4691460318084228</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9853355970654201</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2372,6 +3377,15 @@
       </c>
       <c r="D112" t="n">
         <v>31.22927333814254</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.02319919837853841</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1350527453741144</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1582519437526528</v>
       </c>
     </row>
     <row r="113">
@@ -2391,6 +3405,15 @@
       </c>
       <c r="D113" t="n">
         <v>40.82866159409117</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5001503040240488</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1765658386773287</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.6767161427013775</v>
       </c>
     </row>
     <row r="114">
@@ -2412,6 +3435,15 @@
       <c r="D114" t="n">
         <v>43.00929677512805</v>
       </c>
+      <c r="E114" t="n">
+        <v>0.03205347179522217</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1859961179114829</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.218049589706705</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2427,6 +3459,15 @@
       </c>
       <c r="D115" t="n">
         <v>57.79036454481214</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3455740019585071</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.249917675106941</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.595491677065448</v>
       </c>
     </row>
     <row r="116">
@@ -2448,6 +3489,15 @@
       <c r="D116" t="n">
         <v>71.17811630276535</v>
       </c>
+      <c r="E116" t="n">
+        <v>0.07276308897542758</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.3078137590062228</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.3805768479816504</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2464,6 +3514,15 @@
       <c r="D117" t="n">
         <v>20.75689296814918</v>
       </c>
+      <c r="E117" t="n">
+        <v>0.1178224135182529</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.08976434867478508</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.207586762193038</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2481,6 +3540,15 @@
       <c r="D118" t="n">
         <v>22.38867999167244</v>
       </c>
+      <c r="E118" t="n">
+        <v>0.1237958598073376</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0968211032462566</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.2206169630535942</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2497,6 +3565,15 @@
       <c r="D119" t="n">
         <v>10.18914500923958</v>
       </c>
+      <c r="E119" t="n">
+        <v>0.1899546810594157</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0440635294844362</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.2340182105438519</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2515,6 +3592,15 @@
       <c r="D120" t="n">
         <v>20.73132674381782</v>
       </c>
+      <c r="E120" t="n">
+        <v>0.2887158115278632</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.08965378610269401</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.3783695976305572</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2530,6 +3616,15 @@
       </c>
       <c r="D121" t="n">
         <v>68.23805754579283</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1163102639429756</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2950993098933329</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4114095738363085</v>
       </c>
     </row>
     <row r="122">
@@ -2551,6 +3646,15 @@
       <c r="D122" t="n">
         <v>13.086935694859</v>
       </c>
+      <c r="E122" t="n">
+        <v>0.1752021133656715</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.05659518795035544</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.231797301316027</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2567,6 +3671,15 @@
       <c r="D123" t="n">
         <v>7.501962511687179</v>
       </c>
+      <c r="E123" t="n">
+        <v>0.0537678486028558</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.03244265794873923</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.08621050655159503</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2584,6 +3697,15 @@
       <c r="D124" t="n">
         <v>14.89859475392064</v>
       </c>
+      <c r="E124" t="n">
+        <v>0.1254970280795245</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.06442980923529348</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.189926837314818</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2600,6 +3722,15 @@
       <c r="D125" t="n">
         <v>3.783102225361307</v>
       </c>
+      <c r="E125" t="n">
+        <v>0.05613172098107537</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.01636023790992104</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.07249195889099641</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2618,6 +3749,15 @@
       <c r="D126" t="n">
         <v>15.28067498124195</v>
       </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0660821366235803</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0660821366235803</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2635,6 +3775,15 @@
       <c r="D127" t="n">
         <v>18.47255020429164</v>
       </c>
+      <c r="E127" t="n">
+        <v>0.1357518617202979</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.07988558017786807</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.215637441898166</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2650,6 +3799,15 @@
       </c>
       <c r="D128" t="n">
         <v>5.274600839930721</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.2182824349251897</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.02281030738282374</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.2410927423080134</v>
       </c>
     </row>
     <row r="129">
@@ -2676,6 +3834,15 @@
       <c r="D129" t="n">
         <v>231.237604623536</v>
       </c>
+      <c r="E129" t="n">
+        <v>0.9251782013618459</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.925178201361846</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -2693,6 +3860,15 @@
       </c>
       <c r="D130" t="n">
         <v>29.99763348745494</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.08517683496162695</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1297264497108603</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.2149032846724873</v>
       </c>
     </row>
     <row r="131">
@@ -2714,6 +3890,15 @@
       <c r="D131" t="n">
         <v>28.79039103426138</v>
       </c>
+      <c r="E131" t="n">
+        <v>0.466090501241147</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1245056619624359</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5905961632035829</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -2731,6 +3916,15 @@
       <c r="D132" t="n">
         <v>20.55544896635534</v>
       </c>
+      <c r="E132" t="n">
+        <v>0.002218123021566351</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.08889319278246471</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.09111131580403106</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -2746,6 +3940,15 @@
       </c>
       <c r="D133" t="n">
         <v>15.29349924397818</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.07492427865455127</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.06613759586757788</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.1410618745221291</v>
       </c>
     </row>
     <row r="134">
@@ -2766,6 +3969,15 @@
       <c r="D134" t="n">
         <v>38.71125112687351</v>
       </c>
+      <c r="E134" t="n">
+        <v>0.5760082894946598</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1674089782667355</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.7434172677613953</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -2783,6 +3995,15 @@
       <c r="D135" t="n">
         <v>15.06030535681046</v>
       </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.06512913581391416</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.06512913581391416</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -2798,6 +4019,15 @@
       </c>
       <c r="D136" t="n">
         <v>5.927746362354313</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.07231673157067707</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.02563487185401751</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.09795160342469458</v>
       </c>
     </row>
     <row r="137">
@@ -2827,6 +4057,15 @@
       <c r="D137" t="n">
         <v>74.09623797361441</v>
       </c>
+      <c r="E137" t="n">
+        <v>0.07080230466170211</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.3204333399588965</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.3912356446205986</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -2844,6 +4083,15 @@
       <c r="D138" t="n">
         <v>15.571842344647</v>
       </c>
+      <c r="E138" t="n">
+        <v>0.1721755368814193</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.06734130622914286</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.2395168431105621</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -2861,6 +4109,15 @@
       <c r="D139" t="n">
         <v>10.22786618172953</v>
       </c>
+      <c r="E139" t="n">
+        <v>0.07655029491471388</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.04423098136819443</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.1207812762829083</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -2879,6 +4136,15 @@
       <c r="D140" t="n">
         <v>34.196513435959</v>
       </c>
+      <c r="E140" t="n">
+        <v>0.4138165835439868</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1478847417211067</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5617013252650935</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -2895,6 +4161,15 @@
       <c r="D141" t="n">
         <v>45.54245361130612</v>
       </c>
+      <c r="E141" t="n">
+        <v>0.2218532941631938</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.19695089682948</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.4188041909926738</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2910,6 +4185,15 @@
       </c>
       <c r="D142" t="n">
         <v>16.50989456830267</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.07139796572093642</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.07139796572093642</v>
       </c>
     </row>
     <row r="143">
@@ -2931,6 +4215,15 @@
       <c r="D143" t="n">
         <v>24.05595827633484</v>
       </c>
+      <c r="E143" t="n">
+        <v>0.2031336111680445</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1040313417685627</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.3071649529366072</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2947,6 +4240,15 @@
       <c r="D144" t="n">
         <v>6.098930174737812</v>
       </c>
+      <c r="E144" t="n">
+        <v>0.1484479970850129</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.02637516585880187</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.1748231629438148</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2964,6 +4266,15 @@
       </c>
       <c r="D145" t="n">
         <v>67.54700278058252</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.1900548837421148</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2921108047739541</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.4821656885160689</v>
       </c>
     </row>
     <row r="146">
@@ -2989,6 +4300,15 @@
       <c r="D146" t="n">
         <v>28.08533006772686</v>
       </c>
+      <c r="E146" t="n">
+        <v>0.1986973651249119</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.1214565862392966</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.3201539513642084</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3006,6 +4326,15 @@
       <c r="D147" t="n">
         <v>35.99102393855895</v>
       </c>
+      <c r="E147" t="n">
+        <v>0.4448634738448227</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1556452031111193</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.600508676955942</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3022,6 +4351,15 @@
       <c r="D148" t="n">
         <v>20.98086449449868</v>
       </c>
+      <c r="E148" t="n">
+        <v>0.2769237776411378</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.09073292611146168</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.3676567037525995</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3039,6 +4377,15 @@
       <c r="D149" t="n">
         <v>77.06345512566321</v>
       </c>
+      <c r="E149" t="n">
+        <v>0.3065473343809069</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.3332652370756287</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.6398125714565356</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3056,6 +4403,15 @@
       <c r="D150" t="n">
         <v>28.7475592088835</v>
       </c>
+      <c r="E150" t="n">
+        <v>0.1222267768896177</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1243204333295429</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.2465472102191605</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3072,6 +4428,15 @@
       <c r="D151" t="n">
         <v>4.017383521085972</v>
       </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.01737340052292287</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.01737340052292287</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3088,6 +4453,15 @@
       <c r="D152" t="n">
         <v>6.68988641440121</v>
       </c>
+      <c r="E152" t="n">
+        <v>0.08963813167543443</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.02893078928616568</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.1185689209616001</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3105,6 +4479,15 @@
       <c r="D153" t="n">
         <v>39.61606756311507</v>
       </c>
+      <c r="E153" t="n">
+        <v>0.01611896791236821</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1713219077304126</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.1874408756427808</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3121,6 +4504,15 @@
       <c r="D154" t="n">
         <v>20.50223963860276</v>
       </c>
+      <c r="E154" t="n">
+        <v>0.1183871922752841</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.08866308605808826</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.2070502783333724</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3137,6 +4529,15 @@
       <c r="D155" t="n">
         <v>8.517193191416238</v>
       </c>
+      <c r="E155" t="n">
+        <v>0.05800596661428801</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.03683308000566157</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.09483904661994957</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3154,6 +4555,15 @@
       <c r="D156" t="n">
         <v>15.34798742926225</v>
       </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.06637323308312842</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.06637323308312842</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3170,6 +4580,15 @@
       <c r="D157" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E157" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.02212441102770947</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.07750916655593704</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3186,6 +4605,15 @@
       <c r="D158" t="n">
         <v>10.41591445766909</v>
       </c>
+      <c r="E158" t="n">
+        <v>0.003026576484252238</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.04504420669218837</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.04807078317644061</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3202,6 +4630,15 @@
       <c r="D159" t="n">
         <v>1.410587053688935</v>
       </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.006100162886505536</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.006100162886505536</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3219,6 +4656,15 @@
       <c r="D160" t="n">
         <v>32.19322759635367</v>
       </c>
+      <c r="E160" t="n">
+        <v>0.1235658491038692</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1392214196681613</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.2627872687720306</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3235,6 +4681,15 @@
       <c r="D161" t="n">
         <v>29.29643592042737</v>
       </c>
+      <c r="E161" t="n">
+        <v>0.09805743435585619</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.126694081475732</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.2247515158315882</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3251,6 +4706,15 @@
       <c r="D162" t="n">
         <v>15.18059152268497</v>
       </c>
+      <c r="E162" t="n">
+        <v>0.02827082052333129</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.06564932008960903</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.09392014061294032</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3267,6 +4731,15 @@
       <c r="D163" t="n">
         <v>17.68882892184272</v>
       </c>
+      <c r="E163" t="n">
+        <v>0.08579854706110089</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.07649633350354428</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.1622948805646452</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3285,6 +4758,15 @@
       <c r="D164" t="n">
         <v>6.317403019146195</v>
       </c>
+      <c r="E164" t="n">
+        <v>0.01087426840654961</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.02731996393679643</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.03819423234334605</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3301,6 +4783,15 @@
       <c r="D165" t="n">
         <v>23.68508380109818</v>
       </c>
+      <c r="E165" t="n">
+        <v>0.2080207692833231</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1024274742841176</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.3104482435674407</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3318,6 +4809,15 @@
       <c r="D166" t="n">
         <v>18.14778271490187</v>
       </c>
+      <c r="E166" t="n">
+        <v>0.02558812142743277</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.07848110494159105</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1040692263690238</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3335,6 +4835,15 @@
       <c r="D167" t="n">
         <v>33.63565779196286</v>
       </c>
+      <c r="E167" t="n">
+        <v>0.1548928514495229</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1454592900091793</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.3003521414587023</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3351,6 +4860,15 @@
       <c r="D168" t="n">
         <v>17.84999954695319</v>
       </c>
+      <c r="E168" t="n">
+        <v>0.1721755368814193</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.07719332491795051</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.2493688617993698</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3367,6 +4885,15 @@
       <c r="D169" t="n">
         <v>68.24161696490157</v>
       </c>
+      <c r="E169" t="n">
+        <v>0.1690646990503519</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.2951147028010502</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.4641794018514021</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3383,6 +4910,15 @@
       <c r="D170" t="n">
         <v>40.16400184853366</v>
       </c>
+      <c r="E170" t="n">
+        <v>0.04404591104734578</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1736914803019269</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.2177373913492727</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3399,6 +4935,15 @@
       <c r="D171" t="n">
         <v>10.47760802667443</v>
       </c>
+      <c r="E171" t="n">
+        <v>0.1628976793969621</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.04531100399406227</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.2082086833910243</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3414,6 +4959,15 @@
       </c>
       <c r="D172" t="n">
         <v>25.59586997674787</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2637630662020907</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1106907763485051</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.3744538425505958</v>
       </c>
     </row>
     <row r="173">
@@ -3438,6 +4992,15 @@
       <c r="D173" t="n">
         <v>61.71298514529738</v>
       </c>
+      <c r="E173" t="n">
+        <v>0.237988203411446</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.2668812680609132</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5048694714723592</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3454,6 +5017,15 @@
       <c r="D174" t="n">
         <v>19.99469097384114</v>
       </c>
+      <c r="E174" t="n">
+        <v>0.1236501104506844</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.08646816336985194</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.2101182738205363</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3471,6 +5043,15 @@
       <c r="D175" t="n">
         <v>9.028018815182229</v>
       </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.03904217408704005</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.03904217408704005</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3487,6 +5068,15 @@
       <c r="D176" t="n">
         <v>17.79746639650492</v>
       </c>
+      <c r="E176" t="n">
+        <v>0.2308396529343446</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.07696614236027874</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.3078057952946233</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3503,6 +5093,15 @@
       <c r="D177" t="n">
         <v>13.16318537192458</v>
       </c>
+      <c r="E177" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.05692493395853486</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.07810413734720741</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3519,6 +5118,15 @@
       <c r="D178" t="n">
         <v>8.359847620692459</v>
       </c>
+      <c r="E178" t="n">
+        <v>0.03437407483318532</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.03615263025364159</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0705267050868269</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -3536,6 +5144,15 @@
       <c r="D179" t="n">
         <v>12.26589399006021</v>
       </c>
+      <c r="E179" t="n">
+        <v>0.05598597162442215</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0530445470148749</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.1090305186392971</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -3552,6 +5169,15 @@
       <c r="D180" t="n">
         <v>31.59015034514831</v>
       </c>
+      <c r="E180" t="n">
+        <v>0.04210562273689965</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1366133782460614</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.178719000982961</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -3570,6 +5196,15 @@
       <c r="D181" t="n">
         <v>11.557086360756</v>
       </c>
+      <c r="E181" t="n">
+        <v>0.0537678486028558</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.04997926863829694</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.1037471172411527</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -3586,6 +5221,15 @@
       <c r="D182" t="n">
         <v>21.35655744427317</v>
       </c>
+      <c r="E182" t="n">
+        <v>0.2117692605497485</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0923576313594949</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.3041268919092434</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -3602,6 +5246,15 @@
       <c r="D183" t="n">
         <v>7.641724454062338</v>
       </c>
+      <c r="E183" t="n">
+        <v>0.05982327890505797</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.03304706631303922</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0928703452180972</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -3618,6 +5271,15 @@
       <c r="D184" t="n">
         <v>24.15475144854582</v>
       </c>
+      <c r="E184" t="n">
+        <v>0.01087426840654961</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.10445857838681</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.1153328467933597</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -3635,6 +5297,15 @@
       <c r="D185" t="n">
         <v>15.63695427730213</v>
       </c>
+      <c r="E185" t="n">
+        <v>0.02622122019539524</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.06762288643648473</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.09384410663187998</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -3652,6 +5323,15 @@
       <c r="D186" t="n">
         <v>20.76408783146667</v>
       </c>
+      <c r="E186" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.08979546326503179</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.1451802187932594</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -3669,6 +5349,15 @@
       <c r="D187" t="n">
         <v>31.58854906378133</v>
       </c>
+      <c r="E187" t="n">
+        <v>0.1824372025232858</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1366064534149138</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.3190436559381996</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -3684,6 +5373,15 @@
       </c>
       <c r="D188" t="n">
         <v>3.816712825623821</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0165055888372377</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0165055888372377</v>
       </c>
     </row>
     <row r="189">
@@ -3704,6 +5402,15 @@
       <c r="D189" t="n">
         <v>32.06994131854625</v>
       </c>
+      <c r="E189" t="n">
+        <v>0.3119104552390063</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.1386882612400236</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.4505987164790299</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -3719,6 +5426,15 @@
       </c>
       <c r="D190" t="n">
         <v>8.098482856558054</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.03502234366137249</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.03502234366137249</v>
       </c>
     </row>
     <row r="191">
@@ -3775,6 +5491,15 @@
       <c r="D191" t="n">
         <v>132.4040906595742</v>
       </c>
+      <c r="E191" t="n">
+        <v>0.7255926760948286</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5725889215775839</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.298181597672412</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -3829,6 +5554,15 @@
       </c>
       <c r="D192" t="n">
         <v>129.7660328302921</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.7174398214570386</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.5611804924270702</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.278620313884109</v>
       </c>
     </row>
     <row r="193">
@@ -3888,6 +5622,15 @@
       <c r="D193" t="n">
         <v>132.4040906595742</v>
       </c>
+      <c r="E193" t="n">
+        <v>0.7842567921477537</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.5725889215775839</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.356845713725338</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -3905,6 +5648,15 @@
       <c r="D194" t="n">
         <v>11.08374383024475</v>
       </c>
+      <c r="E194" t="n">
+        <v>0.2704106032656966</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.04793227229753363</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.3183428755632303</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -3921,6 +5673,15 @@
       <c r="D195" t="n">
         <v>76.79170939250979</v>
       </c>
+      <c r="E195" t="n">
+        <v>0.2600897269476897</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.3320900574001782</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.592179784347868</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -3937,6 +5698,15 @@
       <c r="D196" t="n">
         <v>47.18994190590985</v>
       </c>
+      <c r="E196" t="n">
+        <v>0.1222267768896177</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.2040755524290132</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.3263023293186309</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -3953,6 +5723,15 @@
       <c r="D197" t="n">
         <v>0</v>
       </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -3969,6 +5748,15 @@
       <c r="D198" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E198" t="n">
+        <v>0.1167907813531917</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.1381298089091295</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -3986,6 +5774,15 @@
       <c r="D199" t="n">
         <v>14.94301627028736</v>
       </c>
+      <c r="E199" t="n">
+        <v>0.1417412493452666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.06462191257609326</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.2063631619213599</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4002,6 +5799,15 @@
       <c r="D200" t="n">
         <v>5.500302347527374</v>
       </c>
+      <c r="E200" t="n">
+        <v>0.102687253763294</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.0237863662205033</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.1264736199837972</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4019,6 +5825,15 @@
       <c r="D201" t="n">
         <v>15.31036799747594</v>
       </c>
+      <c r="E201" t="n">
+        <v>0.1586026280430872</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.06621054573888113</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.2248131737819684</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4035,6 +5850,15 @@
       <c r="D202" t="n">
         <v>9.944309547056385</v>
       </c>
+      <c r="E202" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.04300472478620472</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.07233678281266735</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4051,6 +5875,15 @@
       <c r="D203" t="n">
         <v>3.036554268074246</v>
       </c>
+      <c r="E203" t="n">
+        <v>0.0537678486028558</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.01313174936670823</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.06689959796956403</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4067,6 +5900,15 @@
       <c r="D204" t="n">
         <v>15.76350287322391</v>
       </c>
+      <c r="E204" t="n">
+        <v>0.03235863451071486</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.06817015294241402</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.1005287874531289</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4083,6 +5925,15 @@
       <c r="D205" t="n">
         <v>10.12663110385034</v>
       </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.04379318459182665</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.04379318459182665</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4099,6 +5950,15 @@
       <c r="D206" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E206" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.02212441102770947</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.04330361441638202</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4116,6 +5976,15 @@
       <c r="D207" t="n">
         <v>47.47630630010795</v>
       </c>
+      <c r="E207" t="n">
+        <v>0.08376488806904878</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.2053139513246613</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.2890788393937101</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4132,6 +6001,15 @@
       <c r="D208" t="n">
         <v>7.838550697059175</v>
       </c>
+      <c r="E208" t="n">
+        <v>0.1628976793969621</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.03389825244825835</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.1967959318452204</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4149,6 +6027,15 @@
       <c r="D209" t="n">
         <v>54.25503156686717</v>
       </c>
+      <c r="E209" t="n">
+        <v>0.231643551729635</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2346289292141584</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.4662724809437934</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4165,6 +6052,15 @@
       </c>
       <c r="D210" t="n">
         <v>23.04035561614334</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.06042677233495026</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.09963931106125215</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.1600660833962024</v>
       </c>
     </row>
     <row r="211">
@@ -4185,6 +6081,15 @@
       <c r="D211" t="n">
         <v>7.341619861611999</v>
       </c>
+      <c r="E211" t="n">
+        <v>0.006053152968504476</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.03174924715884533</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0378024001273498</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4201,6 +6106,15 @@
       <c r="D212" t="n">
         <v>9.38469375912096</v>
       </c>
+      <c r="E212" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.04058463490140202</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.0959693904296296</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4219,6 +6133,15 @@
       <c r="D213" t="n">
         <v>57.19511635228905</v>
       </c>
+      <c r="E213" t="n">
+        <v>0.05382933661269388</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.2473434908885385</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.3011728275012324</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4236,6 +6159,15 @@
       <c r="D214" t="n">
         <v>73.74554119867506</v>
       </c>
+      <c r="E214" t="n">
+        <v>0.1759035321445652</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.3189167320719125</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.4948202642164776</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4252,6 +6184,15 @@
       <c r="D215" t="n">
         <v>13.49329072026359</v>
       </c>
+      <c r="E215" t="n">
+        <v>0.1270524469950582</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.05835249306543892</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.1854049400604972</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4268,6 +6209,15 @@
       <c r="D216" t="n">
         <v>4.409603402444116</v>
       </c>
+      <c r="E216" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.01906957741420616</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.1265825012829407</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4285,6 +6235,15 @@
       <c r="D217" t="n">
         <v>14.92670438327342</v>
       </c>
+      <c r="E217" t="n">
+        <v>0.1412265719295849</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.06455137090515484</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.2057779428347397</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4301,6 +6260,15 @@
       <c r="D218" t="n">
         <v>18.04550386578146</v>
       </c>
+      <c r="E218" t="n">
+        <v>0.05974584955933594</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.07803879431790628</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.1377846438772422</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4317,6 +6285,15 @@
       <c r="D219" t="n">
         <v>11.47678641835435</v>
       </c>
+      <c r="E219" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.04963200703034014</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.1050167625585677</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4334,6 +6311,15 @@
       <c r="D220" t="n">
         <v>22.12748600235314</v>
       </c>
+      <c r="E220" t="n">
+        <v>0.07984559677529551</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.0956915551792606</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.1755371519545561</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4351,6 +6337,15 @@
       <c r="D221" t="n">
         <v>9.357234246224809</v>
       </c>
+      <c r="E221" t="n">
+        <v>0.1461228393796543</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.0404658846966468</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.1865887240763011</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4367,6 +6362,15 @@
       </c>
       <c r="D222" t="n">
         <v>22.45978034549896</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.1532736671904534</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.09712858071706967</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.2504022479075231</v>
       </c>
     </row>
     <row r="223">
@@ -4402,6 +6406,15 @@
       <c r="D223" t="n">
         <v>80.37624327226754</v>
       </c>
+      <c r="E223" t="n">
+        <v>0.3519277629751089</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.3475915753543775</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.6995193383294863</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4418,6 +6431,15 @@
       <c r="D224" t="n">
         <v>9.097011686669179</v>
       </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.03934053763218779</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.03934053763218779</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4434,6 +6456,15 @@
       <c r="D225" t="n">
         <v>35.25544961117649</v>
       </c>
+      <c r="E225" t="n">
+        <v>0.07166769146683065</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.1524641706463521</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.2241318621131828</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4452,6 +6483,15 @@
       <c r="D226" t="n">
         <v>28.49755737006642</v>
       </c>
+      <c r="E226" t="n">
+        <v>0.03325362665391361</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.123239286345582</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.1564929129994956</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4468,6 +6508,15 @@
       <c r="D227" t="n">
         <v>8.531697877619118</v>
       </c>
+      <c r="E227" t="n">
+        <v>0.1125549406754572</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.03689580633525875</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.149450747010716</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4484,6 +6533,15 @@
       <c r="D228" t="n">
         <v>19.60027057711783</v>
       </c>
+      <c r="E228" t="n">
+        <v>0.05555327822185786</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.08476247022636239</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.1403157484482203</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -4501,6 +6559,15 @@
       <c r="D229" t="n">
         <v>17.36032485487069</v>
       </c>
+      <c r="E229" t="n">
+        <v>0.06625902393477719</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.07507569922778776</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.141334723162565</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -4517,6 +6584,15 @@
       <c r="D230" t="n">
         <v>11.02302509521004</v>
       </c>
+      <c r="E230" t="n">
+        <v>0.05212816834050695</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.0476696907198808</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.09979785906038775</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -4533,6 +6609,15 @@
       <c r="D231" t="n">
         <v>39.6338232423596</v>
       </c>
+      <c r="E231" t="n">
+        <v>0.1723007902347932</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1713986931618888</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.3436994833966819</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -4549,6 +6634,15 @@
       <c r="D232" t="n">
         <v>18.30193339472913</v>
       </c>
+      <c r="E232" t="n">
+        <v>0.03565849103869191</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.07914773820860757</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.1148062292472995</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -4565,6 +6659,15 @@
       <c r="D233" t="n">
         <v>1.870802676568508</v>
       </c>
+      <c r="E233" t="n">
+        <v>0.008068593290974927</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.008090391178434186</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.01615898446940911</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -4581,6 +6684,15 @@
       <c r="D234" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E234" t="n">
+        <v>0.1167907813531917</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.1381298089091295</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -4597,6 +6709,15 @@
       <c r="D235" t="n">
         <v>7.001978050229507</v>
       </c>
+      <c r="E235" t="n">
+        <v>0.1125549406754572</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0302804470822512</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.1428353877577084</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -4613,6 +6734,15 @@
       <c r="D236" t="n">
         <v>39.56859932311421</v>
       </c>
+      <c r="E236" t="n">
+        <v>0.4613468151488239</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1711166286622518</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.6324634438110757</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -4630,6 +6760,15 @@
       <c r="D237" t="n">
         <v>22.9157732376751</v>
       </c>
+      <c r="E237" t="n">
+        <v>0.09139851062376173</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.09910054757305971</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.1904990581968214</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -4647,6 +6786,15 @@
       <c r="D238" t="n">
         <v>29.07619847397435</v>
       </c>
+      <c r="E238" t="n">
+        <v>0.08912117692605501</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1257416522771526</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.2148628292032076</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -4662,6 +6810,15 @@
       </c>
       <c r="D239" t="n">
         <v>21.39269649088904</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.0847168135546902</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.09251391669498221</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.1772307302496724</v>
       </c>
     </row>
     <row r="240">
@@ -4684,6 +6841,15 @@
       <c r="D240" t="n">
         <v>115.2159102315612</v>
       </c>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.4982576705857911</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.498257670585791</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -4700,6 +6866,15 @@
       <c r="D241" t="n">
         <v>0</v>
       </c>
+      <c r="E241" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.02933205802646263</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -4717,6 +6892,15 @@
       <c r="D242" t="n">
         <v>13.45086744437637</v>
       </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.05816903122774912</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.05816903122774912</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -4734,6 +6918,15 @@
       <c r="D243" t="n">
         <v>2.103734234248881</v>
       </c>
+      <c r="E243" t="n">
+        <v>0.0423584067773451</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.009097716773505952</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.05145612355085105</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -4750,6 +6943,15 @@
       <c r="D244" t="n">
         <v>13.03013249376985</v>
       </c>
+      <c r="E244" t="n">
+        <v>0.0423584067773451</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.0563495393190196</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.0987079460963647</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -4766,6 +6968,15 @@
       <c r="D245" t="n">
         <v>14.93218384903804</v>
       </c>
+      <c r="E245" t="n">
+        <v>0.03860991551091983</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.06457506716240306</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.1031849826733229</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -4782,6 +6993,15 @@
       <c r="D246" t="n">
         <v>2.995732273553991</v>
       </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.01295521236016591</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.01295521236016591</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -4798,6 +7018,15 @@
       <c r="D247" t="n">
         <v>10.32313272421813</v>
       </c>
+      <c r="E247" t="n">
+        <v>0.008068593290974927</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.04464296687826619</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.05271156016924111</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -4814,6 +7043,15 @@
       <c r="D248" t="n">
         <v>18.24780708051684</v>
       </c>
+      <c r="E248" t="n">
+        <v>0.09131424927694656</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.07891366592481787</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.1702279152017644</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -4830,6 +7068,15 @@
       <c r="D249" t="n">
         <v>7.459402897268383</v>
       </c>
+      <c r="E249" t="n">
+        <v>0.04071872651499626</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.03225860650741728</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.07297733302241355</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -4847,6 +7094,15 @@
       <c r="D250" t="n">
         <v>12.3899954836911</v>
       </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.05358123088959733</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.05358123088959733</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -4863,6 +7119,15 @@
       <c r="D251" t="n">
         <v>24.35442264367489</v>
       </c>
+      <c r="E251" t="n">
+        <v>0.02558812142743277</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1053220676772053</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.130910189104638</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -4879,6 +7144,15 @@
       <c r="D252" t="n">
         <v>10.95491095840178</v>
       </c>
+      <c r="E252" t="n">
+        <v>0.08693493657625655</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.0473751273121723</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.1343100638884288</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -4895,6 +7169,15 @@
       <c r="D253" t="n">
         <v>18.38146003079908</v>
       </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.07949165560992913</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.07949165560992913</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -4911,6 +7194,15 @@
       <c r="D254" t="n">
         <v>16.08195660434245</v>
       </c>
+      <c r="E254" t="n">
+        <v>0.02521463870100887</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.06954732397667117</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.09476196267768003</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -4927,6 +7219,15 @@
       <c r="D255" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E255" t="n">
+        <v>0.1461228393796543</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.1674618669355921</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -4943,6 +7244,15 @@
       <c r="D256" t="n">
         <v>15.45780229526945</v>
       </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.06684813363481847</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.06684813363481847</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -4959,6 +7269,15 @@
       <c r="D257" t="n">
         <v>1.139434283188365</v>
       </c>
+      <c r="E257" t="n">
+        <v>0.1105395003529868</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.004927547511328918</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.1154670478643157</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -4975,6 +7294,15 @@
       <c r="D258" t="n">
         <v>13.68406133154408</v>
       </c>
+      <c r="E258" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.0591774912814128</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.08850954930787543</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -4991,6 +7319,15 @@
       <c r="D259" t="n">
         <v>27.71337646903961</v>
       </c>
+      <c r="E259" t="n">
+        <v>0.009277857484457201</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1198480520249208</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.129125909509378</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -5006,6 +7343,15 @@
       </c>
       <c r="D260" t="n">
         <v>8.598837180456748</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.1270524469950582</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.0371861540187462</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.1642386010138044</v>
       </c>
     </row>
     <row r="261">
@@ -5026,6 +7372,15 @@
       <c r="D261" t="n">
         <v>76.09175862322309</v>
       </c>
+      <c r="E261" t="n">
+        <v>0.04576074332171894</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.32906308101186</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.374823824333579</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5042,6 +7397,15 @@
       <c r="D262" t="n">
         <v>18.87961063083574</v>
       </c>
+      <c r="E262" t="n">
+        <v>0.1318872264352896</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.0816459358397718</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.2135331622750614</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5059,6 +7423,15 @@
       <c r="D263" t="n">
         <v>8.440232150280108</v>
       </c>
+      <c r="E263" t="n">
+        <v>0.01331329279679352</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.03650025766363192</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.04981355046042544</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5075,6 +7448,15 @@
       <c r="D264" t="n">
         <v>12.43926653269789</v>
       </c>
+      <c r="E264" t="n">
+        <v>0.009480540183553099</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.05379430630649158</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.06327484649004468</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5091,6 +7473,15 @@
       <c r="D265" t="n">
         <v>3.036554268074246</v>
       </c>
+      <c r="E265" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.01313174936670823</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04246380739317086</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5107,6 +7498,15 @@
       <c r="D266" t="n">
         <v>35.90449669779907</v>
       </c>
+      <c r="E266" t="n">
+        <v>0.04020632643301224</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1552710112018891</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.1954773376349014</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5124,6 +7524,15 @@
       <c r="D267" t="n">
         <v>12.8755032994728</v>
       </c>
+      <c r="E267" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.05568083668932063</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.07522035981564434</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5141,6 +7550,15 @@
       <c r="D268" t="n">
         <v>23.38687818861805</v>
       </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.10113786737539</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.10113786737539</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5157,6 +7575,15 @@
       <c r="D269" t="n">
         <v>24.26143388837221</v>
       </c>
+      <c r="E269" t="n">
+        <v>0.1885154061624651</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1049199325856657</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.2934353387481308</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5173,6 +7600,15 @@
       <c r="D270" t="n">
         <v>2.813410716760036</v>
       </c>
+      <c r="E270" t="n">
+        <v>0.01190134590421535</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.01216675255454397</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.02406809845875932</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5190,6 +7626,15 @@
       <c r="D271" t="n">
         <v>10.72083833655538</v>
       </c>
+      <c r="E271" t="n">
+        <v>0.116011933228576</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.04636286712106939</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.1623748003496454</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5207,6 +7652,15 @@
       <c r="D272" t="n">
         <v>10.39141698606871</v>
       </c>
+      <c r="E272" t="n">
+        <v>0.1405820864931339</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.04493826600126891</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.1855203524944028</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5223,6 +7677,15 @@
       <c r="D273" t="n">
         <v>24.18071946787169</v>
       </c>
+      <c r="E273" t="n">
+        <v>0.103937509963335</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1045708785439067</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.2085083885072416</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5239,6 +7702,15 @@
       <c r="D274" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.02387786764549565</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.02387786764549565</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5255,6 +7727,15 @@
       <c r="D275" t="n">
         <v>19.4831539860046</v>
       </c>
+      <c r="E275" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.08425599295462323</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.1054351963432958</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5271,6 +7752,15 @@
       <c r="D276" t="n">
         <v>33.51412520088893</v>
       </c>
+      <c r="E276" t="n">
+        <v>0.1175969574821799</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1449337154977507</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.2625306729799306</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5287,6 +7777,15 @@
       <c r="D277" t="n">
         <v>9.197915481610064</v>
       </c>
+      <c r="E277" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.03977690175689476</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05449075477777791</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5302,6 +7801,15 @@
       </c>
       <c r="D278" t="n">
         <v>6.932047971551182</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.04071872651499626</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.02997803053200119</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.07069675704699745</v>
       </c>
     </row>
     <row r="279">
@@ -5322,6 +7830,15 @@
       <c r="D279" t="n">
         <v>33.23873663538899</v>
       </c>
+      <c r="E279" t="n">
+        <v>0.07509280134818157</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1437427821893544</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.218835583537536</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -5338,6 +7855,15 @@
       <c r="D280" t="n">
         <v>12.84110187275547</v>
       </c>
+      <c r="E280" t="n">
+        <v>0.03258864521418325</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.05553206578861294</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0881207110027962</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -5354,6 +7880,15 @@
       <c r="D281" t="n">
         <v>10.40317543189166</v>
       </c>
+      <c r="E281" t="n">
+        <v>0.1188381043474301</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.04498911606020328</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.1638272204076334</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -5370,6 +7905,15 @@
       <c r="D282" t="n">
         <v>16.43335449118034</v>
       </c>
+      <c r="E282" t="n">
+        <v>0.003832752613240419</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.07106696386141213</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.07489971647465256</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -5386,6 +7930,15 @@
       <c r="D283" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E283" t="n">
+        <v>0.01835530960351621</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.01262239001813627</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.03097769962165248</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -5403,6 +7956,15 @@
       <c r="D284" t="n">
         <v>28.21106820873649</v>
       </c>
+      <c r="E284" t="n">
+        <v>0.01553141581835987</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1220003478874694</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.1375317637058293</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -5419,6 +7981,15 @@
       <c r="D285" t="n">
         <v>6.563723119298352</v>
       </c>
+      <c r="E285" t="n">
+        <v>0.05391359795950902</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.02838518903525382</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.08229878699476284</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -5435,6 +8006,15 @@
       <c r="D286" t="n">
         <v>21.21272421649926</v>
       </c>
+      <c r="E286" t="n">
+        <v>0.07776183644189386</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.09173561649297665</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.1694974529348705</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -5452,6 +8032,15 @@
       <c r="D287" t="n">
         <v>13.26854588758241</v>
       </c>
+      <c r="E287" t="n">
+        <v>0.02218806221675663</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.05738057142212717</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.07956863363888381</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -5468,6 +8057,15 @@
       <c r="D288" t="n">
         <v>29.45723569139466</v>
       </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1273894691105809</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.1273894691105809</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -5485,6 +8083,15 @@
       <c r="D289" t="n">
         <v>7.305252217441125</v>
       </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.03159197324040078</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.03159197324040078</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -5502,6 +8109,15 @@
       <c r="D290" t="n">
         <v>20.97569811786479</v>
       </c>
+      <c r="E290" t="n">
+        <v>0.2147070210197901</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.09071058382573224</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.3054176048455224</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -5519,6 +8135,15 @@
       <c r="D291" t="n">
         <v>11.78467119812366</v>
       </c>
+      <c r="E291" t="n">
+        <v>0.08059939422923644</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.05096347204127794</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.1315628662705144</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -5535,6 +8160,15 @@
       <c r="D292" t="n">
         <v>25.59988630968864</v>
       </c>
+      <c r="E292" t="n">
+        <v>0.03344036801712556</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1107081452057345</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.14414851322286</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -5551,6 +8185,15 @@
       <c r="D293" t="n">
         <v>24.86556432556224</v>
       </c>
+      <c r="E293" t="n">
+        <v>0.07422513720935531</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1075325285696691</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.1817576657790244</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -5567,6 +8210,15 @@
       <c r="D294" t="n">
         <v>5.967748020490666</v>
       </c>
+      <c r="E294" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.02580786126982416</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.1333207851385587</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -5583,6 +8235,15 @@
       <c r="D295" t="n">
         <v>19.91570256252251</v>
       </c>
+      <c r="E295" t="n">
+        <v>0.007663227892783132</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.08612657355167672</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.09378980144445985</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -5599,6 +8260,15 @@
       <c r="D296" t="n">
         <v>9.082083666084944</v>
       </c>
+      <c r="E296" t="n">
+        <v>0.2327662772426044</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.0392759805692977</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.2720422578119021</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -5615,6 +8285,15 @@
       <c r="D297" t="n">
         <v>27.81802562062689</v>
       </c>
+      <c r="E297" t="n">
+        <v>0.04264535082325614</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1203006131546629</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.1629459639779191</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -5632,6 +8311,15 @@
       <c r="D298" t="n">
         <v>24.66579342886826</v>
       </c>
+      <c r="E298" t="n">
+        <v>0.2410648812370477</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.1066686081142604</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.3477334893513082</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -5648,6 +8336,15 @@
       <c r="D299" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E299" t="n">
+        <v>0.2243037052219262</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.245642732777864</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -5664,6 +8361,15 @@
       <c r="D300" t="n">
         <v>11.25364286704014</v>
       </c>
+      <c r="E300" t="n">
+        <v>0.02521463870100887</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.04866701021817588</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.07388164891918475</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -5680,6 +8386,15 @@
       <c r="D301" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E301" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.02387786764549565</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.07926262317372322</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -5697,6 +8412,15 @@
       <c r="D302" t="n">
         <v>19.0096983218932</v>
       </c>
+      <c r="E302" t="n">
+        <v>0.1274828630639248</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.08220850736125616</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.2096913704251809</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -5713,6 +8437,15 @@
       <c r="D303" t="n">
         <v>2.918771232417863</v>
       </c>
+      <c r="E303" t="n">
+        <v>0.01835530960351621</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.01262239001813627</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.03097769962165248</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -5730,6 +8463,15 @@
       <c r="D304" t="n">
         <v>26.82614653142857</v>
       </c>
+      <c r="E304" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.1160111763616588</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.1453432343881215</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -5746,6 +8488,15 @@
       <c r="D305" t="n">
         <v>20.30748332081169</v>
       </c>
+      <c r="E305" t="n">
+        <v>0.01975586982760584</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.08782085143060135</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.1075767212582072</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -5762,6 +8513,15 @@
       <c r="D306" t="n">
         <v>12.62632179703963</v>
       </c>
+      <c r="E306" t="n">
+        <v>0.02558812142743277</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.05460323729609543</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0801913587235282</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -5778,6 +8538,15 @@
       <c r="D307" t="n">
         <v>16.03066093958734</v>
       </c>
+      <c r="E307" t="n">
+        <v>0.1222267768896177</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.06932549299533651</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.1915522698849542</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -5795,6 +8564,15 @@
       <c r="D308" t="n">
         <v>9.056418289703926</v>
       </c>
+      <c r="E308" t="n">
+        <v>0.02521463870100887</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.0391649892086027</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06437962790961158</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -5811,6 +8589,15 @@
       <c r="D309" t="n">
         <v>6.319968614080018</v>
       </c>
+      <c r="E309" t="n">
+        <v>0.06668260800255063</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.02733105899608837</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.094013666998639</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -5827,6 +8614,15 @@
       <c r="D310" t="n">
         <v>9.095869482090404</v>
       </c>
+      <c r="E310" t="n">
+        <v>0.0465942474550796</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.03933559810437771</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.08592984555945732</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -5843,6 +8639,15 @@
       <c r="D311" t="n">
         <v>67.65106627965368</v>
       </c>
+      <c r="E311" t="n">
+        <v>0.06192070324064586</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.292560833216519</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.3544815364571648</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -5859,6 +8664,15 @@
       <c r="D312" t="n">
         <v>26.534526180231</v>
       </c>
+      <c r="E312" t="n">
+        <v>0.03041379153287332</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.1147500477849624</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.1451638393178357</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -5875,6 +8689,15 @@
       <c r="D313" t="n">
         <v>26.43921600042667</v>
       </c>
+      <c r="E313" t="n">
+        <v>0.04020632643301224</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.1143378735628695</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.1545441999958818</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -5891,6 +8714,15 @@
       <c r="D314" t="n">
         <v>5.7321819491779</v>
       </c>
+      <c r="E314" t="n">
+        <v>0.02521463870100887</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.02478914257268025</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05000378127368912</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -5907,6 +8739,15 @@
       <c r="D315" t="n">
         <v>11.44920728021656</v>
       </c>
+      <c r="E315" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.04951273949951317</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06422659252039634</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -5924,6 +8765,15 @@
       <c r="D316" t="n">
         <v>12.18235611891286</v>
       </c>
+      <c r="E316" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.05268328280232024</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.1601962066710548</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -5941,6 +8791,15 @@
       <c r="D317" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E317" t="n">
+        <v>0.002621211086060441</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.02387786764549565</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0264990787315561</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -5957,6 +8816,15 @@
       <c r="D318" t="n">
         <v>11.08374383024475</v>
       </c>
+      <c r="E318" t="n">
+        <v>0.08342328801439276</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.04793227229753363</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.1313555603119264</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -5974,6 +8842,15 @@
       <c r="D319" t="n">
         <v>6.137647057286063</v>
       </c>
+      <c r="E319" t="n">
+        <v>0.0329120265992576</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.02654259919046643</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05945462578972403</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -5990,6 +8867,15 @@
       <c r="D320" t="n">
         <v>25.59240156876897</v>
       </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.110675777023527</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.110675777023527</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -6006,6 +8892,15 @@
       <c r="D321" t="n">
         <v>14.77262328435868</v>
       </c>
+      <c r="E321" t="n">
+        <v>0.02605269750176494</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.06388503854469993</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.08993773604646486</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6022,6 +8917,15 @@
       <c r="D322" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.02387786764549565</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.02387786764549565</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6038,6 +8942,15 @@
       <c r="D323" t="n">
         <v>25.00461490386685</v>
       </c>
+      <c r="E323" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.1081338606001189</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.1293130639887914</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -6054,6 +8967,15 @@
       <c r="D324" t="n">
         <v>17.36032485487069</v>
       </c>
+      <c r="E324" t="n">
+        <v>0.01390084489080185</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.07507569922778776</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.08897654411858961</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -6070,6 +8992,15 @@
       <c r="D325" t="n">
         <v>13.55622796003419</v>
       </c>
+      <c r="E325" t="n">
+        <v>0.01331329279679352</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.0586246686913414</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07193796148813492</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -6086,6 +9017,15 @@
       <c r="D326" t="n">
         <v>11.04292183572449</v>
       </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.0477557352909913</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0477557352909913</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6102,6 +9042,15 @@
       <c r="D327" t="n">
         <v>8.558015185936494</v>
       </c>
+      <c r="E327" t="n">
+        <v>0.01593450388285396</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.03700961701220389</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05294412089505784</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -6118,6 +9067,15 @@
       <c r="D328" t="n">
         <v>5.115995809754082</v>
       </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.02212441102770947</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.02212441102770947</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -6134,6 +9092,15 @@
       <c r="D329" t="n">
         <v>13.16400570830849</v>
       </c>
+      <c r="E329" t="n">
+        <v>0.03425337614720686</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.05692848154927056</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.09118185769647742</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -6150,6 +9117,15 @@
       <c r="D330" t="n">
         <v>28.51562715153621</v>
       </c>
+      <c r="E330" t="n">
+        <v>0.1335656213704995</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.1233174301297611</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.2568830515002605</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -6167,6 +9143,15 @@
       <c r="D331" t="n">
         <v>13.73854951682815</v>
       </c>
+      <c r="E331" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.05941312849696335</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0805923318856359</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -6182,6 +9167,15 @@
       </c>
       <c r="D332" t="n">
         <v>5.7321819491779</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.02521463870100887</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.02478914257268025</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05000378127368912</v>
       </c>
     </row>
     <row r="333">
@@ -6202,6 +9196,15 @@
       <c r="D333" t="n">
         <v>42.15028855349008</v>
       </c>
+      <c r="E333" t="n">
+        <v>0.1811846689895471</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.1822812886429628</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.3634659576325099</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -6218,6 +9221,15 @@
       <c r="D334" t="n">
         <v>8.44023215028011</v>
       </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.03650025766363194</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.03650025766363194</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -6234,6 +9246,15 @@
       <c r="D335" t="n">
         <v>4.828313737302302</v>
       </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.02088031375849525</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.02088031375849525</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -6250,6 +9271,15 @@
       <c r="D336" t="n">
         <v>12.24689464005043</v>
       </c>
+      <c r="E336" t="n">
+        <v>0.06224408462572022</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.05296238325937021</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.1152064678850904</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -6266,6 +9296,15 @@
       <c r="D337" t="n">
         <v>45.74865961408251</v>
       </c>
+      <c r="E337" t="n">
+        <v>0.2436997563252944</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.1978426462623289</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.4415424025876233</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -6282,6 +9321,15 @@
       <c r="D338" t="n">
         <v>23.5774985482267</v>
       </c>
+      <c r="E338" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.1019622158195757</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.1215017389458994</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -6298,6 +9346,15 @@
       <c r="D339" t="n">
         <v>10.94943149263715</v>
       </c>
+      <c r="E339" t="n">
+        <v>0.05051126141513517</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.04735143105492404</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.09786269247005921</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -6314,6 +9371,15 @@
       <c r="D340" t="n">
         <v>13.73854951682815</v>
       </c>
+      <c r="E340" t="n">
+        <v>0.02117920338867255</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.05941312849696335</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0805923318856359</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -6330,6 +9396,15 @@
       <c r="D341" t="n">
         <v>13.80409035344943</v>
       </c>
+      <c r="E341" t="n">
+        <v>0.07111885404568334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.05969656352358017</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.1308154175692635</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -6346,6 +9421,15 @@
       <c r="D342" t="n">
         <v>13.55622796003419</v>
       </c>
+      <c r="E342" t="n">
+        <v>0.01533101045296168</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.0586246686913414</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07395567914430308</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -6362,6 +9446,15 @@
       <c r="D343" t="n">
         <v>10.8731790611374</v>
       </c>
+      <c r="E343" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.04702167313503947</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05206368994176216</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -6380,6 +9473,15 @@
       <c r="D344" t="n">
         <v>69.96018788920142</v>
       </c>
+      <c r="E344" t="n">
+        <v>0.1773815217143769</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.3025467592223998</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.4799282809367766</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -6398,6 +9500,15 @@
       <c r="D345" t="n">
         <v>14.57787920756617</v>
       </c>
+      <c r="E345" t="n">
+        <v>0.02017262189428618</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.06304285685409836</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.08321547874838453</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -6414,6 +9525,15 @@
       <c r="D346" t="n">
         <v>14.42913110245427</v>
       </c>
+      <c r="E346" t="n">
+        <v>0.01087426840654961</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.06239958732467182</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07327385573122144</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -6430,6 +9550,15 @@
       <c r="D347" t="n">
         <v>23.17648779046792</v>
       </c>
+      <c r="E347" t="n">
+        <v>0.3811801143221517</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.1002280222898873</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.4814081366120391</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -6447,6 +9576,15 @@
       <c r="D348" t="n">
         <v>28.03011933575451</v>
       </c>
+      <c r="E348" t="n">
+        <v>0.1252533533738699</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.1212178243300377</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.2464711777039077</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -6463,6 +9601,15 @@
       <c r="D349" t="n">
         <v>3.948894480204051</v>
       </c>
+      <c r="E349" t="n">
+        <v>0.08160597572362281</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.01707721582150536</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.09868319154512817</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -6480,6 +9627,15 @@
       <c r="D350" t="n">
         <v>14.68241701647253</v>
       </c>
+      <c r="E350" t="n">
+        <v>0.1286921272574071</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.0634949364761674</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.1921870637335745</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -6496,6 +9652,15 @@
       <c r="D351" t="n">
         <v>36.4530018476995</v>
       </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.1576430525088963</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.1576430525088963</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -6511,6 +9676,15 @@
       </c>
       <c r="D352" t="n">
         <v>22.26328754351221</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.1580241852838697</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.0962788365662139</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.2543030218500836</v>
       </c>
     </row>
     <row r="353">
@@ -6576,6 +9750,15 @@
       <c r="D353" t="n">
         <v>156.6801902390433</v>
       </c>
+      <c r="E353" t="n">
+        <v>0.7938443670150991</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.6775722767675477</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1.471416643782647</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -6592,6 +9775,15 @@
       <c r="D354" t="n">
         <v>15.27721835837404</v>
       </c>
+      <c r="E354" t="n">
+        <v>0.08797340074241081</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.06606718826397617</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.154040589006387</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -6608,6 +9800,15 @@
       <c r="D355" t="n">
         <v>4.881714514029416</v>
       </c>
+      <c r="E355" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.02111124841470764</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.02615326522143033</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -6624,6 +9825,15 @@
       <c r="D356" t="n">
         <v>13.24222857926504</v>
       </c>
+      <c r="E356" t="n">
+        <v>0.1125549406754572</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.05726676074518206</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.1698217014206393</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -6640,6 +9850,15 @@
       <c r="D357" t="n">
         <v>2.882403588246988</v>
       </c>
+      <c r="E357" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.01246511609969173</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06784987162791929</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -6656,6 +9875,15 @@
       <c r="D358" t="n">
         <v>17.7603873882635</v>
       </c>
+      <c r="E358" t="n">
+        <v>0.2066657557331876</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.07680579210798398</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.2834715478411716</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -6673,6 +9901,15 @@
       <c r="D359" t="n">
         <v>43.19465790817639</v>
       </c>
+      <c r="E359" t="n">
+        <v>0.09468698048325026</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.1867977225352209</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.2814847030184712</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -6689,6 +9926,15 @@
       <c r="D360" t="n">
         <v>12.06457308325648</v>
       </c>
+      <c r="E360" t="n">
+        <v>0.05841133201247981</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.0521739234537483</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.1105852554662281</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -6706,6 +9952,15 @@
       <c r="D361" t="n">
         <v>16.5789889059761</v>
       </c>
+      <c r="E361" t="n">
+        <v>0.00685705176379495</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.07169676806230264</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07855381982609759</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -6722,6 +9977,15 @@
       <c r="D362" t="n">
         <v>11.95825670458129</v>
       </c>
+      <c r="E362" t="n">
+        <v>0.0668420213613901</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.05171415230688714</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.1185561736682772</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -6739,6 +10003,15 @@
       <c r="D363" t="n">
         <v>23.10392982371406</v>
       </c>
+      <c r="E363" t="n">
+        <v>0.02558812142743277</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.0999142412901577</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.1255023627175905</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -6756,6 +10029,15 @@
       <c r="D364" t="n">
         <v>28.27819615361393</v>
       </c>
+      <c r="E364" t="n">
+        <v>0.10010931201749</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.1222906464528205</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.2223999584703105</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -6771,6 +10053,15 @@
       </c>
       <c r="D365" t="n">
         <v>27.30880127822787</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.2329484639384209</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.1180984439044319</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.3510469078428529</v>
       </c>
     </row>
     <row r="366">
@@ -6794,6 +10085,15 @@
       <c r="D366" t="n">
         <v>23.07602391742056</v>
       </c>
+      <c r="E366" t="n">
+        <v>0.1070483477944023</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.09979356063210067</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.206841908426503</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -6810,6 +10110,15 @@
       <c r="D367" t="n">
         <v>27.76395839935661</v>
       </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.1200667964216177</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.1200667964216177</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -6826,6 +10135,15 @@
       <c r="D368" t="n">
         <v>12.56347013615719</v>
       </c>
+      <c r="E368" t="n">
+        <v>0.05212816834050695</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.05433143176089814</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.1064596001014051</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -6842,6 +10160,15 @@
       <c r="D369" t="n">
         <v>10.17079199963611</v>
       </c>
+      <c r="E369" t="n">
+        <v>0.05679442508710803</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.04398416086429612</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.1007785859514042</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -6859,6 +10186,15 @@
       <c r="D370" t="n">
         <v>19.78325857845494</v>
       </c>
+      <c r="E370" t="n">
+        <v>0.1107695110564551</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.08555381210881713</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.1963233231652723</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -6876,6 +10212,15 @@
       <c r="D371" t="n">
         <v>46.76663745624818</v>
       </c>
+      <c r="E371" t="n">
+        <v>0.2638974288902554</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.2022449485774</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.4661423774676553</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -6893,6 +10238,15 @@
       <c r="D372" t="n">
         <v>43.27380330014802</v>
       </c>
+      <c r="E372" t="n">
+        <v>0.5751497346906245</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.187139991225041</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.7622897259156655</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -6910,6 +10264,15 @@
       <c r="D373" t="n">
         <v>28.08735855441047</v>
       </c>
+      <c r="E373" t="n">
+        <v>0.06486529571178067</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.1214653585438139</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.1863306542555945</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -6926,6 +10289,15 @@
       <c r="D374" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E374" t="n">
+        <v>0.1461228393796543</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.1674618669355921</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -6943,6 +10315,15 @@
       <c r="D375" t="n">
         <v>11.96171569781677</v>
       </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.05172911091727887</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.05172911091727887</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -6959,6 +10340,15 @@
       <c r="D376" t="n">
         <v>24.02378565085512</v>
       </c>
+      <c r="E376" t="n">
+        <v>0.1549133474528023</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.1038922094439042</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.2588055568967065</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -6975,6 +10365,15 @@
       <c r="D377" t="n">
         <v>31.55549045987891</v>
       </c>
+      <c r="E377" t="n">
+        <v>0.1580241852838697</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.1364634896268386</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.2944876749107083</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -6991,6 +10390,15 @@
       <c r="D378" t="n">
         <v>17.16849394140873</v>
       </c>
+      <c r="E378" t="n">
+        <v>0.2524879870647447</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.07424611567551792</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.3267341027402626</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -7007,6 +10415,15 @@
       <c r="D379" t="n">
         <v>34.57048801520299</v>
       </c>
+      <c r="E379" t="n">
+        <v>0.02541504406640706</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.1495020157793328</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1749170598457399</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -7025,6 +10442,15 @@
       <c r="D380" t="n">
         <v>59.01016796965679</v>
       </c>
+      <c r="E380" t="n">
+        <v>0.02237935824736399</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.2551927834822874</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.2775721417296513</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -7041,6 +10467,15 @@
       <c r="D381" t="n">
         <v>2.813410716760036</v>
       </c>
+      <c r="E381" t="n">
+        <v>0.1206554166382</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.01216675255454397</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.132822169192744</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -7057,6 +10492,15 @@
       <c r="D382" t="n">
         <v>68.7871616615765</v>
       </c>
+      <c r="E382" t="n">
+        <v>0.2927694655097812</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.2974739414619207</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.590243406971702</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -7073,6 +10517,15 @@
       <c r="D383" t="n">
         <v>0</v>
       </c>
+      <c r="E383" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.005042016806722691</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -7091,6 +10544,15 @@
       <c r="D384" t="n">
         <v>40.93073566418026</v>
       </c>
+      <c r="E384" t="n">
+        <v>0.09109562524196672</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.1770072637225988</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.2681028889645655</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -7107,6 +10569,15 @@
       <c r="D385" t="n">
         <v>49.56871134097184</v>
       </c>
+      <c r="E385" t="n">
+        <v>0.1548154221038009</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.2143626743654937</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.3691780964692947</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -7124,6 +10595,15 @@
       <c r="D386" t="n">
         <v>18.44965638442579</v>
       </c>
+      <c r="E386" t="n">
+        <v>0.361640591195828</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.07978657456888366</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.4414271657647117</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -7140,6 +10620,15 @@
       <c r="D387" t="n">
         <v>31.9939418365428</v>
       </c>
+      <c r="E387" t="n">
+        <v>0.06370613285964795</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.1383595972144332</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.2020657300740812</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -7156,6 +10645,15 @@
       </c>
       <c r="D388" t="n">
         <v>24.07507894524268</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.1041140301744514</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1041140301744514</v>
       </c>
     </row>
     <row r="389">
@@ -7176,6 +10674,15 @@
       <c r="D389" t="n">
         <v>21.33423892131747</v>
       </c>
+      <c r="E389" t="n">
+        <v>0.0874245633212635</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.09226111365428845</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1796856769755519</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -7191,6 +10698,15 @@
       </c>
       <c r="D390" t="n">
         <v>7.236259345954172</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.03129360969525303</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.03129360969525303</v>
       </c>
     </row>
     <row r="391">
@@ -7211,6 +10727,15 @@
       <c r="D391" t="n">
         <v>40.76610181293695</v>
       </c>
+      <c r="E391" t="n">
+        <v>0.07907585798547064</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.1762952953923986</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.2553711533778693</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -7227,6 +10752,15 @@
       <c r="D392" t="n">
         <v>8.062514584757286</v>
       </c>
+      <c r="E392" t="n">
+        <v>0.2524515497255814</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.03486679685115827</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.2873183465767397</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -7243,6 +10777,15 @@
       <c r="D393" t="n">
         <v>12.0425941765377</v>
       </c>
+      <c r="E393" t="n">
+        <v>0.03258864521418325</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.05207887443802024</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.08466751965220348</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -7259,6 +10802,15 @@
       <c r="D394" t="n">
         <v>16.08195660434245</v>
       </c>
+      <c r="E394" t="n">
+        <v>0.02155724078249187</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.06954732397667117</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09110456475916304</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -7275,6 +10827,15 @@
       <c r="D395" t="n">
         <v>22.51904180953569</v>
       </c>
+      <c r="E395" t="n">
+        <v>0.06530026644804265</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.09738486024449866</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1626851266925413</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -7291,6 +10852,15 @@
       </c>
       <c r="D396" t="n">
         <v>16.38359289724723</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.1345312108583271</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.0708517670554509</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.205382977913778</v>
       </c>
     </row>
     <row r="397">
@@ -7311,6 +10881,15 @@
       <c r="D397" t="n">
         <v>13.60324192480237</v>
       </c>
+      <c r="E397" t="n">
+        <v>0.03258864521418325</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.05882798322076113</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09141662843494437</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -7327,6 +10906,15 @@
       <c r="D398" t="n">
         <v>20.97480886278232</v>
       </c>
+      <c r="E398" t="n">
+        <v>0.01331329279679352</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.09070673819221638</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1040200309890099</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -7343,6 +10931,15 @@
       <c r="D399" t="n">
         <v>10.3905966496848</v>
       </c>
+      <c r="E399" t="n">
+        <v>0.1933547402700919</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.0449347184105332</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.2382894586806251</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -7359,6 +10956,15 @@
       <c r="D400" t="n">
         <v>13.41164673122308</v>
       </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.05799941905235428</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.05799941905235428</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -7375,6 +10981,15 @@
       <c r="D401" t="n">
         <v>10.23199161950816</v>
       </c>
+      <c r="E401" t="n">
+        <v>0.003026576484252238</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.04424882205541892</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.04727539853967116</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -7391,6 +11006,15 @@
       <c r="D402" t="n">
         <v>5.521460917862246</v>
       </c>
+      <c r="E402" t="n">
+        <v>0.07656395891690011</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.02387786764549565</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1004418265623958</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -7408,6 +11032,15 @@
       <c r="D403" t="n">
         <v>33.23940070956459</v>
       </c>
+      <c r="E403" t="n">
+        <v>0.2802509621734874</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.1437456540153997</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.4239966161888871</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -7424,6 +11057,15 @@
       <c r="D404" t="n">
         <v>11.25435423111069</v>
       </c>
+      <c r="E404" t="n">
+        <v>0.2243037052219262</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.04867008655202611</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.2729737917739523</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -7441,6 +11083,15 @@
       <c r="D405" t="n">
         <v>60.64734227622702</v>
       </c>
+      <c r="E405" t="n">
+        <v>0.3158661838719228</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.2622728356616706</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.5781390195335935</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -7457,6 +11108,15 @@
       <c r="D406" t="n">
         <v>18.51490351519974</v>
       </c>
+      <c r="E406" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.0800687394480787</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.08511075625480138</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -7473,6 +11133,15 @@
       <c r="D407" t="n">
         <v>10.95288634265345</v>
       </c>
+      <c r="E407" t="n">
+        <v>0.2119856072510306</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.04736637174773188</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2593519789987624</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -7490,6 +11159,15 @@
       <c r="D408" t="n">
         <v>34.70011315286045</v>
       </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.1500625869626769</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1500625869626769</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -7506,6 +11184,15 @@
       </c>
       <c r="D409" t="n">
         <v>24.02178665018896</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.2503518480562957</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.1038835646533244</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.3542354127096201</v>
       </c>
     </row>
     <row r="410">
@@ -7528,6 +11215,15 @@
       <c r="D410" t="n">
         <v>45.20372004453139</v>
       </c>
+      <c r="E410" t="n">
+        <v>0.1044726833822961</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.1954860245076697</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2999587078899657</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -7544,6 +11240,15 @@
       <c r="D411" t="n">
         <v>22.10484302145877</v>
       </c>
+      <c r="E411" t="n">
+        <v>0.1192366377445288</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.09559363433748734</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2148302720820161</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -7560,6 +11265,15 @@
       <c r="D412" t="n">
         <v>31.17797767338743</v>
       </c>
+      <c r="E412" t="n">
+        <v>0.2492792238846759</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.1348309143927797</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.3841101382774557</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -7576,6 +11290,15 @@
       <c r="D413" t="n">
         <v>0</v>
       </c>
+      <c r="E413" t="n">
+        <v>0.07656395891690011</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.07656395891690011</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -7592,6 +11315,15 @@
       <c r="D414" t="n">
         <v>24.44499911593143</v>
       </c>
+      <c r="E414" t="n">
+        <v>0.03598870442485939</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.1057137707153162</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1417024751401756</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -7608,6 +11340,15 @@
       <c r="D415" t="n">
         <v>5.99204071305971</v>
       </c>
+      <c r="E415" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.02591291638232886</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1334258402510634</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -7625,6 +11366,15 @@
       <c r="D416" t="n">
         <v>10.19277090635488</v>
       </c>
+      <c r="E416" t="n">
+        <v>0.09120721459315435</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.04407920988002413</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1352864244731785</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -7642,6 +11392,15 @@
       <c r="D417" t="n">
         <v>23.70533191973659</v>
       </c>
+      <c r="E417" t="n">
+        <v>0.0847168135546902</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.1025150384096471</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1872318519643373</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -7660,6 +11419,15 @@
       <c r="D418" t="n">
         <v>18.38899604768587</v>
       </c>
+      <c r="E418" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.07952424553793438</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1870371694066689</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -7675,6 +11443,15 @@
       </c>
       <c r="D419" t="n">
         <v>7.537184274788414</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.0325949764401826</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.04730882946106575</v>
       </c>
     </row>
     <row r="420">
@@ -7703,6 +11480,15 @@
       <c r="D420" t="n">
         <v>38.31778901908708</v>
       </c>
+      <c r="E420" t="n">
+        <v>0.270718043314887</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.1657074292975399</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.4364254726124269</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -7723,6 +11509,15 @@
       <c r="D421" t="n">
         <v>42.3563676092609</v>
       </c>
+      <c r="E421" t="n">
+        <v>0.1874792193300085</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.183172489086361</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.3706517084163695</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -7740,6 +11535,15 @@
       <c r="D422" t="n">
         <v>13.09864685078701</v>
       </c>
+      <c r="E422" t="n">
+        <v>0.003026576484252238</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.05664583350148488</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.05967240998573712</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -7756,6 +11560,15 @@
       <c r="D423" t="n">
         <v>25.61829554270499</v>
       </c>
+      <c r="E423" t="n">
+        <v>0.7158798478741092</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.1107877569671792</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.8266676048412884</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -7771,6 +11584,15 @@
       </c>
       <c r="D424" t="n">
         <v>43.26617937503735</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.3816401357290884</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.1871070211329875</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.5687471568620759</v>
       </c>
     </row>
     <row r="425">
@@ -7792,6 +11614,15 @@
       <c r="D425" t="n">
         <v>27.22837402911525</v>
       </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.1177506317514581</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1177506317514581</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -7808,6 +11639,15 @@
       <c r="D426" t="n">
         <v>21.87200469777144</v>
       </c>
+      <c r="E426" t="n">
+        <v>0.1067705130832821</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.09458671193805149</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2013572250213336</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -7824,6 +11664,15 @@
       <c r="D427" t="n">
         <v>17.53154581583465</v>
       </c>
+      <c r="E427" t="n">
+        <v>0.1270524469950582</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.07581615388369338</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2028686008787516</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -7840,6 +11689,15 @@
       <c r="D428" t="n">
         <v>14.36715817625052</v>
       </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.06213158192691377</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.06213158192691377</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -7856,6 +11714,15 @@
       <c r="D429" t="n">
         <v>21.78573907899865</v>
       </c>
+      <c r="E429" t="n">
+        <v>0.01953952312632371</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.09421365142778874</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1137531745541124</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -7873,6 +11740,15 @@
       <c r="D430" t="n">
         <v>14.31963866028254</v>
       </c>
+      <c r="E430" t="n">
+        <v>0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.06192608111295514</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.06192608111295514</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -7890,6 +11766,15 @@
       <c r="D431" t="n">
         <v>16.82656785410505</v>
       </c>
+      <c r="E431" t="n">
+        <v>0.02923641001115895</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.07276743711949175</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1020038471306507</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -7908,6 +11793,15 @@
       <c r="D432" t="n">
         <v>28.4295393325501</v>
       </c>
+      <c r="E432" t="n">
+        <v>0.04648949010498509</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.1229451385246553</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1694346286296404</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -7925,6 +11819,15 @@
       <c r="D433" t="n">
         <v>29.20431998174677</v>
       </c>
+      <c r="E433" t="n">
+        <v>0.01331329279679352</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.1262957209286637</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1396090137254572</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -7943,6 +11846,15 @@
       <c r="D434" t="n">
         <v>56.41074238900474</v>
       </c>
+      <c r="E434" t="n">
+        <v>0.2329962879460728</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.2439514216593087</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.4769477096053815</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -7959,6 +11871,15 @@
       <c r="D435" t="n">
         <v>29.1397814606092</v>
       </c>
+      <c r="E435" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.1260166204716137</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1814013759998412</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -7975,6 +11896,15 @@
       <c r="D436" t="n">
         <v>14.50068956887504</v>
       </c>
+      <c r="E436" t="n">
+        <v>0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.06270904592911149</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.06270904592911149</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -7992,6 +11922,15 @@
       <c r="D437" t="n">
         <v>10.1005052445075</v>
       </c>
+      <c r="E437" t="n">
+        <v>0.05499533146591971</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.04368020184671747</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.09867553331263718</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -8008,6 +11947,15 @@
       <c r="D438" t="n">
         <v>24.43930109481679</v>
       </c>
+      <c r="E438" t="n">
+        <v>0.03195326911252307</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.1056891293031899</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1376423984157129</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -8024,6 +11972,15 @@
       <c r="D439" t="n">
         <v>6.660895201050611</v>
       </c>
+      <c r="E439" t="n">
+        <v>0.1286921272574071</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.02880541515682457</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1574975424142316</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -8041,6 +11998,15 @@
       <c r="D440" t="n">
         <v>29.70190037876274</v>
       </c>
+      <c r="E440" t="n">
+        <v>0.05189815763703857</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.1284475352835393</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1803456929205778</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -8059,6 +12025,15 @@
       <c r="D441" t="n">
         <v>55.24486222179349</v>
       </c>
+      <c r="E441" t="n">
+        <v>0.2998884106488124</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.2389095074381795</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.538797918086992</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -8075,6 +12050,15 @@
       <c r="D442" t="n">
         <v>8.676618557976779</v>
       </c>
+      <c r="E442" t="n">
+        <v>0.2297397007583522</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.03752252395151152</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2672622247098637</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -8091,6 +12075,15 @@
       <c r="D443" t="n">
         <v>16.15891764547857</v>
       </c>
+      <c r="E443" t="n">
+        <v>0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.06988014631870076</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.06988014631870076</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -8107,6 +12100,15 @@
       <c r="D444" t="n">
         <v>35.4863821681907</v>
       </c>
+      <c r="E444" t="n">
+        <v>0.0473024982350664</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.153462851450844</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2007653496859104</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -8123,6 +12125,15 @@
       </c>
       <c r="D445" t="n">
         <v>36.53078322521954</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.01471385302088316</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.1579794224416617</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1726932754625449</v>
       </c>
     </row>
     <row r="446">
@@ -8143,6 +12154,15 @@
       <c r="D446" t="n">
         <v>22.23376380152561</v>
       </c>
+      <c r="E446" t="n">
+        <v>0.0348067682357496</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.09615115948689687</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1309579277226465</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -8159,6 +12179,15 @@
       <c r="D447" t="n">
         <v>29.33742803998994</v>
       </c>
+      <c r="E447" t="n">
+        <v>0.2786112819111385</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.1268713541975685</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.4054826361087071</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -8175,6 +12204,15 @@
       <c r="D448" t="n">
         <v>6.101279413115188</v>
       </c>
+      <c r="E448" t="n">
+        <v>0.02605269750176494</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.02638532527202188</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.05243802277378682</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -8192,6 +12230,15 @@
       <c r="D449" t="n">
         <v>7.706974339270455</v>
       </c>
+      <c r="E449" t="n">
+        <v>0.03860991551091983</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.03332924310393941</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.07193915861485925</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -8208,6 +12255,15 @@
       <c r="D450" t="n">
         <v>10.80351131194641</v>
       </c>
+      <c r="E450" t="n">
+        <v>0.06042677233495026</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.04672039104338136</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1071471633783316</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -8223,6 +12279,15 @@
       </c>
       <c r="D451" t="n">
         <v>11.20234720228503</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.1222267768896177</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.04844517923684124</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1706719561264589</v>
       </c>
     </row>
     <row r="452">
@@ -8243,6 +12308,15 @@
       <c r="D452" t="n">
         <v>38.19373365781794</v>
       </c>
+      <c r="E452" t="n">
+        <v>0.1903053904488625</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.1651709449248052</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3554763353736677</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -8259,6 +12333,15 @@
       <c r="D453" t="n">
         <v>10.84079765163436</v>
       </c>
+      <c r="E453" t="n">
+        <v>0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.04688163791215364</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.04688163791215364</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -8275,6 +12358,15 @@
       <c r="D454" t="n">
         <v>6.255430092942447</v>
       </c>
+      <c r="E454" t="n">
+        <v>0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.02705195853903839</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.02705195853903839</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -8290,6 +12382,15 @@
       </c>
       <c r="D455" t="n">
         <v>6.238900790991236</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.1374461979913917</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.02698047664500077</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1644266746363925</v>
       </c>
     </row>
     <row r="456">
@@ -8311,6 +12412,15 @@
       <c r="D456" t="n">
         <v>40.0794249468802</v>
       </c>
+      <c r="E456" t="n">
+        <v>0.1337341440641298</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.1733257227436303</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3070598668077601</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -8327,6 +12437,15 @@
       <c r="D457" t="n">
         <v>48.80525700340776</v>
       </c>
+      <c r="E457" t="n">
+        <v>0.02933205802646263</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.2110610732318589</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2403931312583215</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -8343,6 +12462,15 @@
       <c r="D458" t="n">
         <v>8.598837180456748</v>
       </c>
+      <c r="E458" t="n">
+        <v>0.1628976793969621</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.0371861540187462</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2000838334157083</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -8359,6 +12487,15 @@
       <c r="D459" t="n">
         <v>27.24352122019771</v>
       </c>
+      <c r="E459" t="n">
+        <v>0.007868187925576737</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.1178161366294693</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.125684324555046</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -8375,6 +12512,15 @@
       <c r="D460" t="n">
         <v>1.139434283188365</v>
       </c>
+      <c r="E460" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.004927547511328918</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1124404713800634</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -8392,6 +12538,15 @@
       <c r="D461" t="n">
         <v>48.01135991974768</v>
       </c>
+      <c r="E461" t="n">
+        <v>0.1239643825009679</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.2076278207340544</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3315922032350223</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -8407,6 +12562,15 @@
       </c>
       <c r="D462" t="n">
         <v>17.21912955737731</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.07271981963517117</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.07446509223882827</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.1471849118739995</v>
       </c>
     </row>
     <row r="463">
@@ -8433,6 +12597,15 @@
       <c r="D463" t="n">
         <v>77.55378871878987</v>
       </c>
+      <c r="E463" t="n">
+        <v>0.2090273507777095</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.3353857122203395</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.544413062998049</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -8449,6 +12622,15 @@
       <c r="D464" t="n">
         <v>4.718114945004226</v>
       </c>
+      <c r="E464" t="n">
+        <v>0.01351369816219171</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.02040375289601146</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.03391745105820317</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -8465,6 +12647,15 @@
       <c r="D465" t="n">
         <v>6.87232759643681</v>
       </c>
+      <c r="E465" t="n">
+        <v>0.2438432283482499</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.02971976641785938</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.2735629947661093</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -8481,6 +12672,15 @@
       <c r="D466" t="n">
         <v>63.54645669716334</v>
       </c>
+      <c r="E466" t="n">
+        <v>0.316121245246066</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.2748102186952658</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.5909314639413319</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -8497,6 +12697,15 @@
       <c r="D467" t="n">
         <v>17.9951725145932</v>
       </c>
+      <c r="E467" t="n">
+        <v>0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.07782113356471607</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0.07782113356471607</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -8513,6 +12722,15 @@
       <c r="D468" t="n">
         <v>11.37224623908043</v>
       </c>
+      <c r="E468" t="n">
+        <v>0.03425337614720686</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.04917991715748353</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.08343329330469039</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -8529,6 +12747,15 @@
       <c r="D469" t="n">
         <v>22.21651962472354</v>
       </c>
+      <c r="E469" t="n">
+        <v>0.0358930564095557</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.09607658607644252</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0.1319696424859982</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -8545,6 +12772,15 @@
       <c r="D470" t="n">
         <v>6.89978710933296</v>
       </c>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.0298385166226146</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0.0298385166226146</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -8562,6 +12798,15 @@
       <c r="D471" t="n">
         <v>4.934385617030673</v>
       </c>
+      <c r="E471" t="n">
+        <v>0.119817357837444</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.02133902755593775</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0.1411563853933817</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -8578,6 +12823,15 @@
       <c r="D472" t="n">
         <v>5.390432655455842</v>
       </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.0233112285704208</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0.0233112285704208</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -8595,6 +12849,15 @@
       <c r="D473" t="n">
         <v>3.912023005428146</v>
       </c>
+      <c r="E473" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.01691776305933057</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0.07230251858755814</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -8611,6 +12874,15 @@
       <c r="D474" t="n">
         <v>11.72493127187398</v>
       </c>
+      <c r="E474" t="n">
+        <v>0.1672815467650475</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.05070512337715414</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0.2179866701422017</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -8629,6 +12901,15 @@
       <c r="D475" t="n">
         <v>19.3514761620294</v>
       </c>
+      <c r="E475" t="n">
+        <v>0.05538475552822757</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.0836865448140858</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0.1390713003423134</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -8645,6 +12926,15 @@
       <c r="D476" t="n">
         <v>27.60730458931123</v>
       </c>
+      <c r="E476" t="n">
+        <v>0.004438523376830408</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.1193893382274783</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0.1238278616043087</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -8661,6 +12951,15 @@
       <c r="D477" t="n">
         <v>7.086881944879572</v>
       </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.03064761874011495</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0.03064761874011495</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -8678,6 +12977,15 @@
       <c r="D478" t="n">
         <v>26.37977152057628</v>
       </c>
+      <c r="E478" t="n">
+        <v>0.1469290155086425</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.1140808025732821</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0.2610098180819247</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -8695,6 +13003,15 @@
       <c r="D479" t="n">
         <v>19.55787753220054</v>
       </c>
+      <c r="E479" t="n">
+        <v>0.02296918767507003</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.08457913912419886</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0.1075483267992689</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -8711,6 +13028,15 @@
       <c r="D480" t="n">
         <v>27.94788123751754</v>
       </c>
+      <c r="E480" t="n">
+        <v>0.1075129238687345</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.1208621810583871</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0.2283751049271217</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -8727,6 +13053,15 @@
       <c r="D481" t="n">
         <v>5.268370290180085</v>
       </c>
+      <c r="E481" t="n">
+        <v>0.2345881442007698</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.02278336302072148</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0.2573715072214913</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -8743,6 +13078,15 @@
       <c r="D482" t="n">
         <v>10.53670682451619</v>
       </c>
+      <c r="E482" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.04556658006240104</v>
+      </c>
+      <c r="G482" t="n">
+        <v>0.05060859686912373</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -8760,6 +13104,15 @@
       <c r="D483" t="n">
         <v>34.45957785883436</v>
       </c>
+      <c r="E483" t="n">
+        <v>0.01190134590421535</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.1490223785829987</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0.1609237244872141</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -8776,6 +13129,15 @@
       <c r="D484" t="n">
         <v>30.81564664959643</v>
       </c>
+      <c r="E484" t="n">
+        <v>0.3334130400127531</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.1332639935436346</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0.4666770335563877</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -8792,6 +13154,15 @@
       <c r="D485" t="n">
         <v>30.81907987080911</v>
       </c>
+      <c r="E485" t="n">
+        <v>0.04817927170868349</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.1332788407014672</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0.1814581124101507</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -8808,6 +13179,15 @@
       </c>
       <c r="D486" t="n">
         <v>37.42372236656295</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.1450206098699643</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.1618409878769081</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.3068615977468724</v>
       </c>
     </row>
     <row r="487">
@@ -8828,6 +13208,15 @@
       <c r="D487" t="n">
         <v>17.52149547998115</v>
       </c>
+      <c r="E487" t="n">
+        <v>0.1169934640522876</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.07577269064219395</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.1927661546944816</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -8844,6 +13233,15 @@
       <c r="D488" t="n">
         <v>3.816712825623821</v>
       </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.0165055888372377</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0.0165055888372377</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -8860,6 +13258,15 @@
       <c r="D489" t="n">
         <v>0</v>
       </c>
+      <c r="E489" t="n">
+        <v>0.005042016806722691</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0.005042016806722691</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -8875,6 +13282,15 @@
       </c>
       <c r="D490" t="n">
         <v>6.630123542383858</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.02867234139178168</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0.02867234139178168</v>
       </c>
     </row>
   </sheetData>
